--- a/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.783180554442907</v>
+        <v>1.783180554442936</v>
       </c>
       <c r="C2">
         <v>0.5761925347921135</v>
       </c>
       <c r="D2">
-        <v>0.01714657529442398</v>
+        <v>0.01714657529434049</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.559397536266232</v>
+        <v>2.559397536266189</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.483410248230939</v>
+        <v>1.483410248230911</v>
       </c>
       <c r="I2">
-        <v>0.07039490218461353</v>
+        <v>0.07039490218459576</v>
       </c>
       <c r="J2">
-        <v>0.5399600386381991</v>
+        <v>0.5399600386381849</v>
       </c>
       <c r="K2">
-        <v>0.1837833728892448</v>
+        <v>0.183783372889252</v>
       </c>
       <c r="L2">
-        <v>0.5832811697441116</v>
+        <v>0.5832811697440903</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.536609076492681</v>
+        <v>1.536609076492567</v>
       </c>
       <c r="C3">
-        <v>0.4956336396172958</v>
+        <v>0.4956336396172389</v>
       </c>
       <c r="D3">
-        <v>0.01718786363894687</v>
+        <v>0.01718786363881719</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.300650253227303</v>
+        <v>2.300650253227289</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>1.356700763136871</v>
       </c>
       <c r="I3">
-        <v>0.06467117868125705</v>
+        <v>0.0646711786812677</v>
       </c>
       <c r="J3">
-        <v>0.4649999490951942</v>
+        <v>0.4649999490952013</v>
       </c>
       <c r="K3">
-        <v>0.1602183325374433</v>
+        <v>0.1602183325374362</v>
       </c>
       <c r="L3">
-        <v>0.5038168444082558</v>
+        <v>0.5038168444082274</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>1.387412975483841</v>
       </c>
       <c r="C4">
-        <v>0.4469719780752825</v>
+        <v>0.4469719780753394</v>
       </c>
       <c r="D4">
-        <v>0.01722787218151467</v>
+        <v>0.0172278721814898</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.146442368853712</v>
+        <v>2.146442368853741</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.281511812537317</v>
+        <v>1.281511812537332</v>
       </c>
       <c r="I4">
-        <v>0.06128113841472782</v>
+        <v>0.06128113841476335</v>
       </c>
       <c r="J4">
-        <v>0.4196641220895074</v>
+        <v>0.4196641220895003</v>
       </c>
       <c r="K4">
         <v>0.1460675175206667</v>
       </c>
       <c r="L4">
-        <v>0.4558915072602403</v>
+        <v>0.4558915072602616</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.327084610528232</v>
+        <v>1.327084610528203</v>
       </c>
       <c r="C5">
-        <v>0.4273117560499884</v>
+        <v>0.4273117560495905</v>
       </c>
       <c r="D5">
-        <v>0.01724736553093109</v>
+        <v>0.01724736553102169</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.084647264108966</v>
+        <v>2.08464726410898</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>1.251460582050782</v>
       </c>
       <c r="I5">
-        <v>0.05992783578042982</v>
+        <v>0.05992783578042626</v>
       </c>
       <c r="J5">
-        <v>0.4013364572191946</v>
+        <v>0.4013364572192089</v>
       </c>
       <c r="K5">
-        <v>0.1403712033450013</v>
+        <v>0.1403712033449978</v>
       </c>
       <c r="L5">
-        <v>0.4365500068254491</v>
+        <v>0.4365500068254562</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.317093246539571</v>
+        <v>1.317093246539599</v>
       </c>
       <c r="C6">
-        <v>0.4240565694392728</v>
+        <v>0.4240565694392444</v>
       </c>
       <c r="D6">
         <v>0.01725078148878367</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.074445889440767</v>
+        <v>2.074445889440724</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>1.246504290235364</v>
       </c>
       <c r="I6">
-        <v>0.05970473619322725</v>
+        <v>0.05970473619325212</v>
       </c>
       <c r="J6">
-        <v>0.3983013145229677</v>
+        <v>0.3983013145229606</v>
       </c>
       <c r="K6">
-        <v>0.1394293083106675</v>
+        <v>0.1394293083106639</v>
       </c>
       <c r="L6">
-        <v>0.4333489383852012</v>
+        <v>0.4333489383851941</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.386597566338565</v>
+        <v>1.386597566338537</v>
       </c>
       <c r="C7">
-        <v>0.4467061859516832</v>
+        <v>0.4467061859515127</v>
       </c>
       <c r="D7">
-        <v>0.01722812277974839</v>
+        <v>0.01722812277962227</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.145604903922731</v>
+        <v>2.145604903922745</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.281104232247344</v>
+        <v>1.281104232247358</v>
       </c>
       <c r="I7">
-        <v>0.06126277717305051</v>
+        <v>0.06126277717307538</v>
       </c>
       <c r="J7">
-        <v>0.4194163866591509</v>
+        <v>0.4194163866591651</v>
       </c>
       <c r="K7">
-        <v>0.1459904228668982</v>
+        <v>0.1459904228668947</v>
       </c>
       <c r="L7">
-        <v>0.4556299348700108</v>
+        <v>0.455629934870025</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.697653857096327</v>
+        <v>1.697653857096185</v>
       </c>
       <c r="C8">
-        <v>0.5482293207378461</v>
+        <v>0.5482293207376472</v>
       </c>
       <c r="D8">
-        <v>0.01715745402552926</v>
+        <v>0.01715745402565894</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.439136262886322</v>
+        <v>1.439136262886336</v>
       </c>
       <c r="I8">
-        <v>0.06839360258420868</v>
+        <v>0.06839360258420157</v>
       </c>
       <c r="J8">
-        <v>0.5139539124565502</v>
+        <v>0.5139539124565573</v>
       </c>
       <c r="K8">
-        <v>0.1755859551410666</v>
+        <v>0.1755859551410737</v>
       </c>
       <c r="L8">
         <v>0.5556836370153988</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.329270038568325</v>
+        <v>2.329270038568495</v>
       </c>
       <c r="C9">
-        <v>0.755285605183218</v>
+        <v>0.7552856051829053</v>
       </c>
       <c r="D9">
-        <v>0.01716061150493431</v>
+        <v>0.01716061150507286</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.14694211619107</v>
+        <v>3.146942116191042</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>1.773146382176378</v>
       </c>
       <c r="I9">
-        <v>0.08351902710675319</v>
+        <v>0.08351902710674963</v>
       </c>
       <c r="J9">
-        <v>0.7061507547183794</v>
+        <v>0.7061507547183865</v>
       </c>
       <c r="K9">
-        <v>0.2366377820623242</v>
+        <v>0.2366377820623029</v>
       </c>
       <c r="L9">
-        <v>0.7602363498818576</v>
+        <v>0.7602363498818434</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.813105346114185</v>
+        <v>2.813105346114014</v>
       </c>
       <c r="C10">
         <v>0.9148114243618011</v>
       </c>
       <c r="D10">
-        <v>0.01729042536903691</v>
+        <v>0.01729042536932468</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.681351360382934</v>
+        <v>3.681351360382905</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.038557267077152</v>
+        <v>2.038557267077124</v>
       </c>
       <c r="I10">
-        <v>0.09557092177051985</v>
+        <v>0.09557092177052695</v>
       </c>
       <c r="J10">
         <v>0.853615588575849</v>
       </c>
       <c r="K10">
-        <v>0.2841008404887972</v>
+        <v>0.2841008404888399</v>
       </c>
       <c r="L10">
         <v>0.917933763889053</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.039229354633846</v>
+        <v>3.039229354633733</v>
       </c>
       <c r="C11">
-        <v>0.9896569757194698</v>
+        <v>0.9896569757192424</v>
       </c>
       <c r="D11">
         <v>0.0173883120410423</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.934966612198139</v>
+        <v>3.93496661219811</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>2.165023104063351</v>
       </c>
       <c r="I11">
-        <v>0.1013205043241214</v>
+        <v>0.101320504324125</v>
       </c>
       <c r="J11">
-        <v>0.9226095769190437</v>
+        <v>0.9226095769190579</v>
       </c>
       <c r="K11">
-        <v>0.3064592402705486</v>
+        <v>0.3064592402705699</v>
       </c>
       <c r="L11">
-        <v>0.9918879855672529</v>
+        <v>0.9918879855672742</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.125889613847335</v>
+        <v>3.125889613847448</v>
       </c>
       <c r="C12">
-        <v>1.018391370323968</v>
+        <v>1.018391370324224</v>
       </c>
       <c r="D12">
-        <v>0.01743209126892964</v>
+        <v>0.01743209126902912</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.032766337610099</v>
+        <v>4.03276633761007</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.213869748139771</v>
+        <v>2.213869748139743</v>
       </c>
       <c r="I12">
-        <v>0.1035422182092169</v>
+        <v>0.1035422182092596</v>
       </c>
       <c r="J12">
         <v>0.949064065845505</v>
       </c>
       <c r="K12">
-        <v>0.3150554563737842</v>
+        <v>0.3150554563737913</v>
       </c>
       <c r="L12">
-        <v>1.020269822664005</v>
+        <v>1.020269822664012</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.10717698747419</v>
+        <v>3.107176987474418</v>
       </c>
       <c r="C13">
-        <v>1.012184338231094</v>
+        <v>1.012184338231435</v>
       </c>
       <c r="D13">
-        <v>0.01742234409053367</v>
+        <v>0.01742234409101684</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.01162073544063</v>
+        <v>4.011620735440601</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>2.203304879909325</v>
       </c>
       <c r="I13">
-        <v>0.1030616489649923</v>
+        <v>0.1030616489649496</v>
       </c>
       <c r="J13">
-        <v>0.9433511048579106</v>
+        <v>0.9433511048578822</v>
       </c>
       <c r="K13">
-        <v>0.3131980090854469</v>
+        <v>0.3131980090854185</v>
       </c>
       <c r="L13">
-        <v>1.014139505269192</v>
+        <v>1.014139505269178</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.046337230938946</v>
+        <v>3.046337230938775</v>
       </c>
       <c r="C14">
-        <v>0.9920127111556667</v>
+        <v>0.9920127111549277</v>
       </c>
       <c r="D14">
-        <v>0.01739177212585474</v>
+        <v>0.01739177212598619</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>2.169021744048678</v>
       </c>
       <c r="I14">
-        <v>0.1015023570843319</v>
+        <v>0.101502357084307</v>
       </c>
       <c r="J14">
         <v>0.9247790995810021</v>
       </c>
       <c r="K14">
-        <v>0.3071637394205027</v>
+        <v>0.3071637394205169</v>
       </c>
       <c r="L14">
-        <v>0.9942150586753584</v>
+        <v>0.9942150586753371</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.009210834943815</v>
+        <v>3.009210834943644</v>
       </c>
       <c r="C15">
         <v>0.9797101375196746</v>
       </c>
       <c r="D15">
-        <v>0.01737395670637554</v>
+        <v>0.01737395670673436</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.901166159098011</v>
+        <v>3.90116615909804</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.148151194015142</v>
+        <v>2.148151194015156</v>
       </c>
       <c r="I15">
-        <v>0.1005532313842075</v>
+        <v>0.100553231384211</v>
       </c>
       <c r="J15">
-        <v>0.9134476251234958</v>
+        <v>0.9134476251234815</v>
       </c>
       <c r="K15">
-        <v>0.3034850664296727</v>
+        <v>0.3034850664296656</v>
       </c>
       <c r="L15">
-        <v>0.9820617194535899</v>
+        <v>0.9820617194535828</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,31 +950,31 @@
         <v>0.9099712182343183</v>
       </c>
       <c r="D16">
-        <v>0.01728490180961018</v>
+        <v>0.0172849018097061</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.665009077001287</v>
+        <v>3.665009077001258</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.030418666025625</v>
+        <v>2.030418666025597</v>
       </c>
       <c r="I16">
-        <v>0.09520104771445048</v>
+        <v>0.09520104771442561</v>
       </c>
       <c r="J16">
-        <v>0.8491495041772907</v>
+        <v>0.8491495041773049</v>
       </c>
       <c r="K16">
         <v>0.282656691156248</v>
       </c>
       <c r="L16">
-        <v>0.9131500848165928</v>
+        <v>0.9131500848165643</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.670829132427514</v>
+        <v>2.670829132427571</v>
       </c>
       <c r="C17">
-        <v>0.8678148793614469</v>
+        <v>0.8678148793618448</v>
       </c>
       <c r="D17">
-        <v>0.01724096046208246</v>
+        <v>0.01724096046192258</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.522993461253179</v>
+        <v>3.522993461253122</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.959749963405898</v>
+        <v>1.959749963405883</v>
       </c>
       <c r="I17">
-        <v>0.09199013271441103</v>
+        <v>0.0919901327144288</v>
       </c>
       <c r="J17">
-        <v>0.8102297689101334</v>
+        <v>0.8102297689101263</v>
       </c>
       <c r="K17">
-        <v>0.2700885520784908</v>
+        <v>0.270088552078505</v>
       </c>
       <c r="L17">
-        <v>0.8714817776013106</v>
+        <v>0.8714817776012893</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.597973725327336</v>
+        <v>2.597973725327279</v>
       </c>
       <c r="C18">
-        <v>0.8437775654600159</v>
+        <v>0.8437775654600728</v>
       </c>
       <c r="D18">
-        <v>0.01721926416441377</v>
+        <v>0.01721926416431074</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.442282248320907</v>
+        <v>3.442282248320851</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>1.919633497178907</v>
       </c>
       <c r="I18">
-        <v>0.09016803398553819</v>
+        <v>0.09016803398556661</v>
       </c>
       <c r="J18">
-        <v>0.7880205020753621</v>
+        <v>0.788020502075355</v>
       </c>
       <c r="K18">
-        <v>0.2629306090714465</v>
+        <v>0.2629306090714323</v>
       </c>
       <c r="L18">
-        <v>0.847720011596941</v>
+        <v>0.8477200115969268</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,10 +1061,10 @@
         <v>2.573396935806727</v>
       </c>
       <c r="C19">
-        <v>0.8356731711071461</v>
+        <v>0.8356731711076009</v>
       </c>
       <c r="D19">
-        <v>0.01721250126604801</v>
+        <v>0.01721250126605156</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.906138069251696</v>
+        <v>1.906138069251682</v>
       </c>
       <c r="I19">
-        <v>0.08955517922323253</v>
+        <v>0.08955517922321121</v>
       </c>
       <c r="J19">
         <v>0.7805296123702306</v>
       </c>
       <c r="K19">
-        <v>0.2605186881148711</v>
+        <v>0.2605186881149066</v>
       </c>
       <c r="L19">
-        <v>0.8397082049325206</v>
+        <v>0.8397082049325277</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.684357257793238</v>
+        <v>2.684357257793067</v>
       </c>
       <c r="C20">
-        <v>0.87228033086447</v>
+        <v>0.8722803308652374</v>
       </c>
       <c r="D20">
-        <v>0.01724526025250483</v>
+        <v>0.01724526025237338</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.538008923125631</v>
+        <v>3.538008923125659</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.967216977467388</v>
+        <v>1.967216977467416</v>
       </c>
       <c r="I20">
-        <v>0.092329338835345</v>
+        <v>0.09232933883533434</v>
       </c>
       <c r="J20">
-        <v>0.8143542299973774</v>
+        <v>0.8143542299973703</v>
       </c>
       <c r="K20">
         <v>0.2714189810280487</v>
       </c>
       <c r="L20">
-        <v>0.8758958537316559</v>
+        <v>0.8758958537316488</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.064177897112074</v>
+        <v>3.064177897112131</v>
       </c>
       <c r="C21">
-        <v>0.9979264056903219</v>
+        <v>0.9979264056900377</v>
       </c>
       <c r="D21">
-        <v>0.01740055975432497</v>
+        <v>0.01740055975494315</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.179064413761537</v>
+        <v>2.179064413761523</v>
       </c>
       <c r="I21">
-        <v>0.1019590994962449</v>
+        <v>0.1019590994962378</v>
       </c>
       <c r="J21">
-        <v>0.9302247860047004</v>
+        <v>0.9302247860046862</v>
       </c>
       <c r="K21">
         <v>0.3089324672872706</v>
       </c>
       <c r="L21">
-        <v>1.000056616069351</v>
+        <v>1.000056616069365</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.318522559710232</v>
+        <v>3.318522559710289</v>
       </c>
       <c r="C22">
-        <v>1.082365464161654</v>
+        <v>1.082365464162223</v>
       </c>
       <c r="D22">
-        <v>0.01754184801936631</v>
+        <v>0.01754184801938763</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.251310196789177</v>
+        <v>4.251310196789092</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>2.323171493770488</v>
       </c>
       <c r="I22">
-        <v>0.1085153643047718</v>
+        <v>0.1085153643047683</v>
       </c>
       <c r="J22">
-        <v>1.007894891741572</v>
+        <v>1.007894891741557</v>
       </c>
       <c r="K22">
-        <v>0.3342159245306533</v>
+        <v>0.3342159245306178</v>
       </c>
       <c r="L22">
-        <v>1.083433355135512</v>
+        <v>1.083433355135497</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.182153901723836</v>
+        <v>3.182153901723666</v>
       </c>
       <c r="C23">
-        <v>1.037062359912056</v>
+        <v>1.037062359912312</v>
       </c>
       <c r="D23">
-        <v>0.01746237398046802</v>
+        <v>0.01746237398049999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.096436584858367</v>
+        <v>4.09643658485831</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.24569269252963</v>
+        <v>2.245692692529616</v>
       </c>
       <c r="I23">
-        <v>0.1049899007308035</v>
+        <v>0.1049899007307751</v>
       </c>
       <c r="J23">
         <v>0.9662436074609957</v>
       </c>
       <c r="K23">
-        <v>0.3206444725804403</v>
+        <v>0.3206444725804332</v>
       </c>
       <c r="L23">
-        <v>1.038708092682711</v>
+        <v>1.03870809268269</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.678239576402916</v>
+        <v>2.678239576402802</v>
       </c>
       <c r="C24">
-        <v>0.8702608853875518</v>
+        <v>0.8702608853875233</v>
       </c>
       <c r="D24">
-        <v>0.01724330529199491</v>
+        <v>0.01724330529223295</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.963839555725656</v>
+        <v>1.963839555725642</v>
       </c>
       <c r="I24">
-        <v>0.092175909754733</v>
+        <v>0.09217590975475076</v>
       </c>
       <c r="J24">
-        <v>0.8124890473527273</v>
+        <v>0.8124890473527202</v>
       </c>
       <c r="K24">
-        <v>0.270817284812118</v>
+        <v>0.2708172848121322</v>
       </c>
       <c r="L24">
         <v>0.8738996502513814</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.155451417042457</v>
+        <v>2.155451417042343</v>
       </c>
       <c r="C25">
-        <v>0.6981745292832784</v>
+        <v>0.6981745292828236</v>
       </c>
       <c r="D25">
-        <v>0.01714070434306336</v>
+        <v>0.01714070434306869</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0.07928154703525436</v>
       </c>
       <c r="J25">
-        <v>0.6532252895011936</v>
+        <v>0.6532252895012221</v>
       </c>
       <c r="K25">
-        <v>0.2197247956134945</v>
+        <v>0.2197247956135371</v>
       </c>
       <c r="L25">
-        <v>0.7037824650300522</v>
+        <v>0.7037824650300735</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.783180554442936</v>
+        <v>1.783180554442907</v>
       </c>
       <c r="C2">
         <v>0.5761925347921135</v>
       </c>
       <c r="D2">
-        <v>0.01714657529434049</v>
+        <v>0.01714657529442398</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.559397536266189</v>
+        <v>2.559397536266232</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.483410248230911</v>
+        <v>1.483410248230939</v>
       </c>
       <c r="I2">
-        <v>0.07039490218459576</v>
+        <v>0.07039490218461353</v>
       </c>
       <c r="J2">
-        <v>0.5399600386381849</v>
+        <v>0.5399600386381991</v>
       </c>
       <c r="K2">
-        <v>0.183783372889252</v>
+        <v>0.1837833728892448</v>
       </c>
       <c r="L2">
-        <v>0.5832811697440903</v>
+        <v>0.5832811697441116</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.536609076492567</v>
+        <v>1.536609076492681</v>
       </c>
       <c r="C3">
-        <v>0.4956336396172389</v>
+        <v>0.4956336396172958</v>
       </c>
       <c r="D3">
-        <v>0.01718786363881719</v>
+        <v>0.01718786363894687</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.300650253227289</v>
+        <v>2.300650253227303</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>1.356700763136871</v>
       </c>
       <c r="I3">
-        <v>0.0646711786812677</v>
+        <v>0.06467117868125705</v>
       </c>
       <c r="J3">
-        <v>0.4649999490952013</v>
+        <v>0.4649999490951942</v>
       </c>
       <c r="K3">
-        <v>0.1602183325374362</v>
+        <v>0.1602183325374433</v>
       </c>
       <c r="L3">
-        <v>0.5038168444082274</v>
+        <v>0.5038168444082558</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>1.387412975483841</v>
       </c>
       <c r="C4">
-        <v>0.4469719780753394</v>
+        <v>0.4469719780752825</v>
       </c>
       <c r="D4">
-        <v>0.0172278721814898</v>
+        <v>0.01722787218151467</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.146442368853741</v>
+        <v>2.146442368853712</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.281511812537332</v>
+        <v>1.281511812537317</v>
       </c>
       <c r="I4">
-        <v>0.06128113841476335</v>
+        <v>0.06128113841472782</v>
       </c>
       <c r="J4">
-        <v>0.4196641220895003</v>
+        <v>0.4196641220895074</v>
       </c>
       <c r="K4">
         <v>0.1460675175206667</v>
       </c>
       <c r="L4">
-        <v>0.4558915072602616</v>
+        <v>0.4558915072602403</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.327084610528203</v>
+        <v>1.327084610528232</v>
       </c>
       <c r="C5">
-        <v>0.4273117560495905</v>
+        <v>0.4273117560499884</v>
       </c>
       <c r="D5">
-        <v>0.01724736553102169</v>
+        <v>0.01724736553093109</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.08464726410898</v>
+        <v>2.084647264108966</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>1.251460582050782</v>
       </c>
       <c r="I5">
-        <v>0.05992783578042626</v>
+        <v>0.05992783578042982</v>
       </c>
       <c r="J5">
-        <v>0.4013364572192089</v>
+        <v>0.4013364572191946</v>
       </c>
       <c r="K5">
-        <v>0.1403712033449978</v>
+        <v>0.1403712033450013</v>
       </c>
       <c r="L5">
-        <v>0.4365500068254562</v>
+        <v>0.4365500068254491</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.317093246539599</v>
+        <v>1.317093246539571</v>
       </c>
       <c r="C6">
-        <v>0.4240565694392444</v>
+        <v>0.4240565694392728</v>
       </c>
       <c r="D6">
         <v>0.01725078148878367</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.074445889440724</v>
+        <v>2.074445889440767</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>1.246504290235364</v>
       </c>
       <c r="I6">
-        <v>0.05970473619325212</v>
+        <v>0.05970473619322725</v>
       </c>
       <c r="J6">
-        <v>0.3983013145229606</v>
+        <v>0.3983013145229677</v>
       </c>
       <c r="K6">
-        <v>0.1394293083106639</v>
+        <v>0.1394293083106675</v>
       </c>
       <c r="L6">
-        <v>0.4333489383851941</v>
+        <v>0.4333489383852012</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.386597566338537</v>
+        <v>1.386597566338565</v>
       </c>
       <c r="C7">
-        <v>0.4467061859515127</v>
+        <v>0.4467061859516832</v>
       </c>
       <c r="D7">
-        <v>0.01722812277962227</v>
+        <v>0.01722812277974839</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.145604903922745</v>
+        <v>2.145604903922731</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.281104232247358</v>
+        <v>1.281104232247344</v>
       </c>
       <c r="I7">
-        <v>0.06126277717307538</v>
+        <v>0.06126277717305051</v>
       </c>
       <c r="J7">
-        <v>0.4194163866591651</v>
+        <v>0.4194163866591509</v>
       </c>
       <c r="K7">
-        <v>0.1459904228668947</v>
+        <v>0.1459904228668982</v>
       </c>
       <c r="L7">
-        <v>0.455629934870025</v>
+        <v>0.4556299348700108</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.697653857096185</v>
+        <v>1.697653857096327</v>
       </c>
       <c r="C8">
-        <v>0.5482293207376472</v>
+        <v>0.5482293207378461</v>
       </c>
       <c r="D8">
-        <v>0.01715745402565894</v>
+        <v>0.01715745402552926</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.439136262886336</v>
+        <v>1.439136262886322</v>
       </c>
       <c r="I8">
-        <v>0.06839360258420157</v>
+        <v>0.06839360258420868</v>
       </c>
       <c r="J8">
-        <v>0.5139539124565573</v>
+        <v>0.5139539124565502</v>
       </c>
       <c r="K8">
-        <v>0.1755859551410737</v>
+        <v>0.1755859551410666</v>
       </c>
       <c r="L8">
         <v>0.5556836370153988</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.329270038568495</v>
+        <v>2.329270038568325</v>
       </c>
       <c r="C9">
-        <v>0.7552856051829053</v>
+        <v>0.755285605183218</v>
       </c>
       <c r="D9">
-        <v>0.01716061150507286</v>
+        <v>0.01716061150493431</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.146942116191042</v>
+        <v>3.14694211619107</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>1.773146382176378</v>
       </c>
       <c r="I9">
-        <v>0.08351902710674963</v>
+        <v>0.08351902710675319</v>
       </c>
       <c r="J9">
-        <v>0.7061507547183865</v>
+        <v>0.7061507547183794</v>
       </c>
       <c r="K9">
-        <v>0.2366377820623029</v>
+        <v>0.2366377820623242</v>
       </c>
       <c r="L9">
-        <v>0.7602363498818434</v>
+        <v>0.7602363498818576</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.813105346114014</v>
+        <v>2.813105346114185</v>
       </c>
       <c r="C10">
         <v>0.9148114243618011</v>
       </c>
       <c r="D10">
-        <v>0.01729042536932468</v>
+        <v>0.01729042536903691</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.681351360382905</v>
+        <v>3.681351360382934</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.038557267077124</v>
+        <v>2.038557267077152</v>
       </c>
       <c r="I10">
-        <v>0.09557092177052695</v>
+        <v>0.09557092177051985</v>
       </c>
       <c r="J10">
         <v>0.853615588575849</v>
       </c>
       <c r="K10">
-        <v>0.2841008404888399</v>
+        <v>0.2841008404887972</v>
       </c>
       <c r="L10">
         <v>0.917933763889053</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.039229354633733</v>
+        <v>3.039229354633846</v>
       </c>
       <c r="C11">
-        <v>0.9896569757192424</v>
+        <v>0.9896569757194698</v>
       </c>
       <c r="D11">
         <v>0.0173883120410423</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.93496661219811</v>
+        <v>3.934966612198139</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>2.165023104063351</v>
       </c>
       <c r="I11">
-        <v>0.101320504324125</v>
+        <v>0.1013205043241214</v>
       </c>
       <c r="J11">
-        <v>0.9226095769190579</v>
+        <v>0.9226095769190437</v>
       </c>
       <c r="K11">
-        <v>0.3064592402705699</v>
+        <v>0.3064592402705486</v>
       </c>
       <c r="L11">
-        <v>0.9918879855672742</v>
+        <v>0.9918879855672529</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.125889613847448</v>
+        <v>3.125889613847335</v>
       </c>
       <c r="C12">
-        <v>1.018391370324224</v>
+        <v>1.018391370323968</v>
       </c>
       <c r="D12">
-        <v>0.01743209126902912</v>
+        <v>0.01743209126892964</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.03276633761007</v>
+        <v>4.032766337610099</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.213869748139743</v>
+        <v>2.213869748139771</v>
       </c>
       <c r="I12">
-        <v>0.1035422182092596</v>
+        <v>0.1035422182092169</v>
       </c>
       <c r="J12">
         <v>0.949064065845505</v>
       </c>
       <c r="K12">
-        <v>0.3150554563737913</v>
+        <v>0.3150554563737842</v>
       </c>
       <c r="L12">
-        <v>1.020269822664012</v>
+        <v>1.020269822664005</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.107176987474418</v>
+        <v>3.10717698747419</v>
       </c>
       <c r="C13">
-        <v>1.012184338231435</v>
+        <v>1.012184338231094</v>
       </c>
       <c r="D13">
-        <v>0.01742234409101684</v>
+        <v>0.01742234409053367</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.011620735440601</v>
+        <v>4.01162073544063</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>2.203304879909325</v>
       </c>
       <c r="I13">
-        <v>0.1030616489649496</v>
+        <v>0.1030616489649923</v>
       </c>
       <c r="J13">
-        <v>0.9433511048578822</v>
+        <v>0.9433511048579106</v>
       </c>
       <c r="K13">
-        <v>0.3131980090854185</v>
+        <v>0.3131980090854469</v>
       </c>
       <c r="L13">
-        <v>1.014139505269178</v>
+        <v>1.014139505269192</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.046337230938775</v>
+        <v>3.046337230938946</v>
       </c>
       <c r="C14">
-        <v>0.9920127111549277</v>
+        <v>0.9920127111556667</v>
       </c>
       <c r="D14">
-        <v>0.01739177212598619</v>
+        <v>0.01739177212585474</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>2.169021744048678</v>
       </c>
       <c r="I14">
-        <v>0.101502357084307</v>
+        <v>0.1015023570843319</v>
       </c>
       <c r="J14">
         <v>0.9247790995810021</v>
       </c>
       <c r="K14">
-        <v>0.3071637394205169</v>
+        <v>0.3071637394205027</v>
       </c>
       <c r="L14">
-        <v>0.9942150586753371</v>
+        <v>0.9942150586753584</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.009210834943644</v>
+        <v>3.009210834943815</v>
       </c>
       <c r="C15">
         <v>0.9797101375196746</v>
       </c>
       <c r="D15">
-        <v>0.01737395670673436</v>
+        <v>0.01737395670637554</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.90116615909804</v>
+        <v>3.901166159098011</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.148151194015156</v>
+        <v>2.148151194015142</v>
       </c>
       <c r="I15">
-        <v>0.100553231384211</v>
+        <v>0.1005532313842075</v>
       </c>
       <c r="J15">
-        <v>0.9134476251234815</v>
+        <v>0.9134476251234958</v>
       </c>
       <c r="K15">
-        <v>0.3034850664296656</v>
+        <v>0.3034850664296727</v>
       </c>
       <c r="L15">
-        <v>0.9820617194535828</v>
+        <v>0.9820617194535899</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,31 +950,31 @@
         <v>0.9099712182343183</v>
       </c>
       <c r="D16">
-        <v>0.0172849018097061</v>
+        <v>0.01728490180961018</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.665009077001258</v>
+        <v>3.665009077001287</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.030418666025597</v>
+        <v>2.030418666025625</v>
       </c>
       <c r="I16">
-        <v>0.09520104771442561</v>
+        <v>0.09520104771445048</v>
       </c>
       <c r="J16">
-        <v>0.8491495041773049</v>
+        <v>0.8491495041772907</v>
       </c>
       <c r="K16">
         <v>0.282656691156248</v>
       </c>
       <c r="L16">
-        <v>0.9131500848165643</v>
+        <v>0.9131500848165928</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.670829132427571</v>
+        <v>2.670829132427514</v>
       </c>
       <c r="C17">
-        <v>0.8678148793618448</v>
+        <v>0.8678148793614469</v>
       </c>
       <c r="D17">
-        <v>0.01724096046192258</v>
+        <v>0.01724096046208246</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.522993461253122</v>
+        <v>3.522993461253179</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.959749963405883</v>
+        <v>1.959749963405898</v>
       </c>
       <c r="I17">
-        <v>0.0919901327144288</v>
+        <v>0.09199013271441103</v>
       </c>
       <c r="J17">
-        <v>0.8102297689101263</v>
+        <v>0.8102297689101334</v>
       </c>
       <c r="K17">
-        <v>0.270088552078505</v>
+        <v>0.2700885520784908</v>
       </c>
       <c r="L17">
-        <v>0.8714817776012893</v>
+        <v>0.8714817776013106</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.597973725327279</v>
+        <v>2.597973725327336</v>
       </c>
       <c r="C18">
-        <v>0.8437775654600728</v>
+        <v>0.8437775654600159</v>
       </c>
       <c r="D18">
-        <v>0.01721926416431074</v>
+        <v>0.01721926416441377</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.442282248320851</v>
+        <v>3.442282248320907</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>1.919633497178907</v>
       </c>
       <c r="I18">
-        <v>0.09016803398556661</v>
+        <v>0.09016803398553819</v>
       </c>
       <c r="J18">
-        <v>0.788020502075355</v>
+        <v>0.7880205020753621</v>
       </c>
       <c r="K18">
-        <v>0.2629306090714323</v>
+        <v>0.2629306090714465</v>
       </c>
       <c r="L18">
-        <v>0.8477200115969268</v>
+        <v>0.847720011596941</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,10 +1061,10 @@
         <v>2.573396935806727</v>
       </c>
       <c r="C19">
-        <v>0.8356731711076009</v>
+        <v>0.8356731711071461</v>
       </c>
       <c r="D19">
-        <v>0.01721250126605156</v>
+        <v>0.01721250126604801</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.906138069251682</v>
+        <v>1.906138069251696</v>
       </c>
       <c r="I19">
-        <v>0.08955517922321121</v>
+        <v>0.08955517922323253</v>
       </c>
       <c r="J19">
         <v>0.7805296123702306</v>
       </c>
       <c r="K19">
-        <v>0.2605186881149066</v>
+        <v>0.2605186881148711</v>
       </c>
       <c r="L19">
-        <v>0.8397082049325277</v>
+        <v>0.8397082049325206</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.684357257793067</v>
+        <v>2.684357257793238</v>
       </c>
       <c r="C20">
-        <v>0.8722803308652374</v>
+        <v>0.87228033086447</v>
       </c>
       <c r="D20">
-        <v>0.01724526025237338</v>
+        <v>0.01724526025250483</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.538008923125659</v>
+        <v>3.538008923125631</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.967216977467416</v>
+        <v>1.967216977467388</v>
       </c>
       <c r="I20">
-        <v>0.09232933883533434</v>
+        <v>0.092329338835345</v>
       </c>
       <c r="J20">
-        <v>0.8143542299973703</v>
+        <v>0.8143542299973774</v>
       </c>
       <c r="K20">
         <v>0.2714189810280487</v>
       </c>
       <c r="L20">
-        <v>0.8758958537316488</v>
+        <v>0.8758958537316559</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.064177897112131</v>
+        <v>3.064177897112074</v>
       </c>
       <c r="C21">
-        <v>0.9979264056900377</v>
+        <v>0.9979264056903219</v>
       </c>
       <c r="D21">
-        <v>0.01740055975494315</v>
+        <v>0.01740055975432497</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.179064413761523</v>
+        <v>2.179064413761537</v>
       </c>
       <c r="I21">
-        <v>0.1019590994962378</v>
+        <v>0.1019590994962449</v>
       </c>
       <c r="J21">
-        <v>0.9302247860046862</v>
+        <v>0.9302247860047004</v>
       </c>
       <c r="K21">
         <v>0.3089324672872706</v>
       </c>
       <c r="L21">
-        <v>1.000056616069365</v>
+        <v>1.000056616069351</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.318522559710289</v>
+        <v>3.318522559710232</v>
       </c>
       <c r="C22">
-        <v>1.082365464162223</v>
+        <v>1.082365464161654</v>
       </c>
       <c r="D22">
-        <v>0.01754184801938763</v>
+        <v>0.01754184801936631</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.251310196789092</v>
+        <v>4.251310196789177</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>2.323171493770488</v>
       </c>
       <c r="I22">
-        <v>0.1085153643047683</v>
+        <v>0.1085153643047718</v>
       </c>
       <c r="J22">
-        <v>1.007894891741557</v>
+        <v>1.007894891741572</v>
       </c>
       <c r="K22">
-        <v>0.3342159245306178</v>
+        <v>0.3342159245306533</v>
       </c>
       <c r="L22">
-        <v>1.083433355135497</v>
+        <v>1.083433355135512</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.182153901723666</v>
+        <v>3.182153901723836</v>
       </c>
       <c r="C23">
-        <v>1.037062359912312</v>
+        <v>1.037062359912056</v>
       </c>
       <c r="D23">
-        <v>0.01746237398049999</v>
+        <v>0.01746237398046802</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.09643658485831</v>
+        <v>4.096436584858367</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.245692692529616</v>
+        <v>2.24569269252963</v>
       </c>
       <c r="I23">
-        <v>0.1049899007307751</v>
+        <v>0.1049899007308035</v>
       </c>
       <c r="J23">
         <v>0.9662436074609957</v>
       </c>
       <c r="K23">
-        <v>0.3206444725804332</v>
+        <v>0.3206444725804403</v>
       </c>
       <c r="L23">
-        <v>1.03870809268269</v>
+        <v>1.038708092682711</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.678239576402802</v>
+        <v>2.678239576402916</v>
       </c>
       <c r="C24">
-        <v>0.8702608853875233</v>
+        <v>0.8702608853875518</v>
       </c>
       <c r="D24">
-        <v>0.01724330529223295</v>
+        <v>0.01724330529199491</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.963839555725642</v>
+        <v>1.963839555725656</v>
       </c>
       <c r="I24">
-        <v>0.09217590975475076</v>
+        <v>0.092175909754733</v>
       </c>
       <c r="J24">
-        <v>0.8124890473527202</v>
+        <v>0.8124890473527273</v>
       </c>
       <c r="K24">
-        <v>0.2708172848121322</v>
+        <v>0.270817284812118</v>
       </c>
       <c r="L24">
         <v>0.8738996502513814</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.155451417042343</v>
+        <v>2.155451417042457</v>
       </c>
       <c r="C25">
-        <v>0.6981745292828236</v>
+        <v>0.6981745292832784</v>
       </c>
       <c r="D25">
-        <v>0.01714070434306869</v>
+        <v>0.01714070434306336</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0.07928154703525436</v>
       </c>
       <c r="J25">
-        <v>0.6532252895012221</v>
+        <v>0.6532252895011936</v>
       </c>
       <c r="K25">
-        <v>0.2197247956135371</v>
+        <v>0.2197247956134945</v>
       </c>
       <c r="L25">
-        <v>0.7037824650300735</v>
+        <v>0.7037824650300522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.783180554442907</v>
+        <v>1.769589243539542</v>
       </c>
       <c r="C2">
-        <v>0.5761925347921135</v>
+        <v>0.5681751694195043</v>
       </c>
       <c r="D2">
-        <v>0.01714657529442398</v>
+        <v>0.01935229957816809</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.559397536266232</v>
+        <v>2.578417257072999</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007979868055408783</v>
       </c>
       <c r="H2">
-        <v>1.483410248230939</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.07039490218461353</v>
+        <v>1.499568279497865</v>
       </c>
       <c r="J2">
-        <v>0.5399600386381991</v>
+        <v>0.06962875444190075</v>
       </c>
       <c r="K2">
-        <v>0.1837833728892448</v>
+        <v>0.5350076980819551</v>
       </c>
       <c r="L2">
-        <v>0.5832811697441116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1831734516269776</v>
+      </c>
+      <c r="M2">
+        <v>0.5810569601994757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.536609076492681</v>
+        <v>1.525186241567468</v>
       </c>
       <c r="C3">
-        <v>0.4956336396172958</v>
+        <v>0.4886663004589877</v>
       </c>
       <c r="D3">
-        <v>0.01718786363894687</v>
+        <v>0.01946496541115295</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.300650253227303</v>
+        <v>2.322781776259532</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008063680773101042</v>
       </c>
       <c r="H3">
-        <v>1.356700763136871</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06467117868125705</v>
+        <v>1.374554716691222</v>
       </c>
       <c r="J3">
-        <v>0.4649999490951942</v>
+        <v>0.06388977125455675</v>
       </c>
       <c r="K3">
-        <v>0.1602183325374433</v>
+        <v>0.4607961411160275</v>
       </c>
       <c r="L3">
-        <v>0.5038168444082558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.15967230607448</v>
+      </c>
+      <c r="M3">
+        <v>0.5020930927386829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.387412975483841</v>
+        <v>1.377327944026035</v>
       </c>
       <c r="C4">
-        <v>0.4469719780752825</v>
+        <v>0.4406529251036488</v>
       </c>
       <c r="D4">
-        <v>0.01722787218151467</v>
+        <v>0.01954842987764494</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.146442368853712</v>
+        <v>2.170479694457995</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008116451174659332</v>
       </c>
       <c r="H4">
-        <v>1.281511812537317</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06128113841472782</v>
+        <v>1.30040383454967</v>
       </c>
       <c r="J4">
-        <v>0.4196641220895074</v>
+        <v>0.06048907285403615</v>
       </c>
       <c r="K4">
-        <v>0.1460675175206667</v>
+        <v>0.4159224260433732</v>
       </c>
       <c r="L4">
-        <v>0.4558915072602403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1455582405376639</v>
+      </c>
+      <c r="M4">
+        <v>0.4544725657293753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.327084610528232</v>
+        <v>1.317547369479229</v>
       </c>
       <c r="C5">
-        <v>0.4273117560499884</v>
+        <v>0.4212582695876677</v>
       </c>
       <c r="D5">
-        <v>0.01724736553093109</v>
+        <v>0.01958556947109358</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.084647264108966</v>
+        <v>2.109461677806863</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008138301634702527</v>
       </c>
       <c r="H5">
-        <v>1.251460582050782</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.05992783578042982</v>
+        <v>1.270775730743793</v>
       </c>
       <c r="J5">
-        <v>0.4013364572191946</v>
+        <v>0.05913112338063087</v>
       </c>
       <c r="K5">
-        <v>0.1403712033450013</v>
+        <v>0.3977840572038218</v>
       </c>
       <c r="L5">
-        <v>0.4365500068254491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1398763613194163</v>
+      </c>
+      <c r="M5">
+        <v>0.4352549667366716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.317093246539571</v>
+        <v>1.307647152033724</v>
       </c>
       <c r="C6">
-        <v>0.4240565694392728</v>
+        <v>0.4180472769649555</v>
       </c>
       <c r="D6">
-        <v>0.01725078148878367</v>
+        <v>0.01959191264341165</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.074445889440767</v>
+        <v>2.099389411326726</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008141951259524402</v>
       </c>
       <c r="H6">
-        <v>1.246504290235364</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.05970473619322725</v>
+        <v>1.265889730141183</v>
       </c>
       <c r="J6">
-        <v>0.3983013145229677</v>
+        <v>0.05890723440209378</v>
       </c>
       <c r="K6">
-        <v>0.1394293083106675</v>
+        <v>0.394780415762142</v>
       </c>
       <c r="L6">
-        <v>0.4333489383852012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1389368327814111</v>
+      </c>
+      <c r="M6">
+        <v>0.4320744616374768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.386597566338565</v>
+        <v>1.376519910672812</v>
       </c>
       <c r="C7">
-        <v>0.4467061859516832</v>
+        <v>0.4403907082906358</v>
       </c>
       <c r="D7">
-        <v>0.01722812277974839</v>
+        <v>0.01954891867377917</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.145604903922731</v>
+        <v>2.169652705667531</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008116744435180338</v>
       </c>
       <c r="H7">
-        <v>1.281104232247344</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06126277717305051</v>
+        <v>1.300001959125211</v>
       </c>
       <c r="J7">
-        <v>0.4194163866591509</v>
+        <v>0.06047065014751141</v>
       </c>
       <c r="K7">
-        <v>0.1459904228668982</v>
+        <v>0.4156772391160999</v>
       </c>
       <c r="L7">
-        <v>0.4556299348700108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1454813426455885</v>
+      </c>
+      <c r="M7">
+        <v>0.4542126651930474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.697653857096327</v>
+        <v>1.684809576147842</v>
       </c>
       <c r="C8">
-        <v>0.5482293207378461</v>
+        <v>0.5405735760291464</v>
       </c>
       <c r="D8">
-        <v>0.01715745402552926</v>
+        <v>0.01938788559538551</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.469133578321959</v>
+        <v>2.489228328182207</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008008505613174192</v>
       </c>
       <c r="H8">
-        <v>1.439136262886322</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.06839360258420868</v>
+        <v>1.455880305477649</v>
       </c>
       <c r="J8">
-        <v>0.5139539124565502</v>
+        <v>0.06762247398118859</v>
       </c>
       <c r="K8">
-        <v>0.1755859551410666</v>
+        <v>0.5092593691208407</v>
       </c>
       <c r="L8">
-        <v>0.5556836370153988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1749986336311409</v>
+      </c>
+      <c r="M8">
+        <v>0.5536326977604276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.329270038568325</v>
+        <v>2.310997114805332</v>
       </c>
       <c r="C9">
-        <v>0.755285605183218</v>
+        <v>0.745004491047041</v>
       </c>
       <c r="D9">
-        <v>0.01716061150493431</v>
+        <v>0.0192093236170976</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.14694211619107</v>
+        <v>3.159159211321054</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007805791843951026</v>
       </c>
       <c r="H9">
-        <v>1.773146382176378</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.08351902710675319</v>
+        <v>1.785593754511936</v>
       </c>
       <c r="J9">
-        <v>0.7061507547183794</v>
+        <v>0.08277775707952628</v>
       </c>
       <c r="K9">
-        <v>0.2366377820623242</v>
+        <v>0.6995843111079978</v>
       </c>
       <c r="L9">
-        <v>0.7602363498818576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2358729204436614</v>
+      </c>
+      <c r="M9">
+        <v>0.7569068589435233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.813105346114185</v>
+        <v>2.790753391660076</v>
       </c>
       <c r="C10">
-        <v>0.9148114243618011</v>
+        <v>0.9025614389190082</v>
       </c>
       <c r="D10">
-        <v>0.01729042536903691</v>
+        <v>0.01920031982424675</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.681351360382934</v>
+        <v>3.687561089276443</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007661356612473425</v>
       </c>
       <c r="H10">
-        <v>2.038557267077152</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.09557092177051985</v>
+        <v>2.047725190288048</v>
       </c>
       <c r="J10">
-        <v>0.853615588575849</v>
+        <v>0.09484283061983589</v>
       </c>
       <c r="K10">
-        <v>0.2841008404887972</v>
+        <v>0.8456447141650187</v>
       </c>
       <c r="L10">
-        <v>0.917933763889053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2831834465058591</v>
+      </c>
+      <c r="M10">
+        <v>0.9136159643752961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.039229354633846</v>
+        <v>3.014977408702009</v>
       </c>
       <c r="C11">
-        <v>0.9896569757194698</v>
+        <v>0.9764910311585879</v>
       </c>
       <c r="D11">
-        <v>0.0173883120410423</v>
+        <v>0.01923320964797526</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.934966612198139</v>
+        <v>3.938356217772565</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007596286722475564</v>
       </c>
       <c r="H11">
-        <v>2.165023104063351</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1013205043241214</v>
+        <v>2.172650967401481</v>
       </c>
       <c r="J11">
-        <v>0.9226095769190437</v>
+        <v>0.1005959694143606</v>
       </c>
       <c r="K11">
-        <v>0.3064592402705486</v>
+        <v>0.9139850856304861</v>
       </c>
       <c r="L11">
-        <v>0.9918879855672529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3054655567647444</v>
+      </c>
+      <c r="M11">
+        <v>0.9871023623412398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.125889613847335</v>
+        <v>3.100909258319689</v>
       </c>
       <c r="C12">
-        <v>1.018391370323968</v>
+        <v>1.004874464004786</v>
       </c>
       <c r="D12">
-        <v>0.01743209126892964</v>
+        <v>0.01925204077627285</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.032766337610099</v>
+        <v>4.035071418975605</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007571705065337911</v>
       </c>
       <c r="H12">
-        <v>2.213869748139771</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1035422182092169</v>
+        <v>2.220905291495043</v>
       </c>
       <c r="J12">
-        <v>0.949064065845505</v>
+        <v>0.1028186219126468</v>
       </c>
       <c r="K12">
-        <v>0.3150554563737842</v>
+        <v>0.9401890846810375</v>
       </c>
       <c r="L12">
-        <v>1.020269822664005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3140316709162008</v>
+      </c>
+      <c r="M12">
+        <v>1.015303636515789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.10717698747419</v>
+        <v>3.082353950568461</v>
       </c>
       <c r="C13">
-        <v>1.012184338231094</v>
+        <v>0.9987432218623837</v>
       </c>
       <c r="D13">
-        <v>0.01742234409053367</v>
+        <v>0.01924768276189326</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.01162073544063</v>
+        <v>4.014160199654754</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000757699710883583</v>
       </c>
       <c r="H13">
-        <v>2.203304879909325</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1030616489649923</v>
+        <v>2.210468435610323</v>
       </c>
       <c r="J13">
-        <v>0.9433511048579106</v>
+        <v>0.1023378697174913</v>
       </c>
       <c r="K13">
-        <v>0.3131980090854469</v>
+        <v>0.9345302191688631</v>
       </c>
       <c r="L13">
-        <v>1.014139505269192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3121807645575814</v>
+      </c>
+      <c r="M13">
+        <v>1.009212372349616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.046337230938946</v>
+        <v>3.022025553440187</v>
       </c>
       <c r="C14">
-        <v>0.9920127111556667</v>
+        <v>0.9788179826981036</v>
       </c>
       <c r="D14">
-        <v>0.01739177212585474</v>
+        <v>0.01923462439652823</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.942975803079662</v>
+        <v>3.946276542872113</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007594263394914558</v>
       </c>
       <c r="H14">
-        <v>2.169021744048678</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1015023570843319</v>
+        <v>2.176601073962502</v>
       </c>
       <c r="J14">
-        <v>0.9247790995810021</v>
+        <v>0.1007779079458579</v>
       </c>
       <c r="K14">
-        <v>0.3071637394205027</v>
+        <v>0.9161340655702759</v>
       </c>
       <c r="L14">
-        <v>0.9942150586753584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3061676051382776</v>
+      </c>
+      <c r="M14">
+        <v>0.9894146537904334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.009210834943815</v>
+        <v>2.985211134090719</v>
       </c>
       <c r="C15">
-        <v>0.9797101375196746</v>
+        <v>0.9666657547204238</v>
       </c>
       <c r="D15">
-        <v>0.01737395670637554</v>
+        <v>0.01922749064364027</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.901166159098011</v>
+        <v>3.90493090675443</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007604846130581539</v>
       </c>
       <c r="H15">
-        <v>2.148151194015142</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1005532313842075</v>
+        <v>2.155983936057439</v>
       </c>
       <c r="J15">
-        <v>0.9134476251234958</v>
+        <v>0.09982831686419402</v>
       </c>
       <c r="K15">
-        <v>0.3034850664296727</v>
+        <v>0.904909888999029</v>
       </c>
       <c r="L15">
-        <v>0.9820617194535899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3025016975386237</v>
+      </c>
+      <c r="M15">
+        <v>0.9773384693441614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.798462487028019</v>
+        <v>2.776233601541776</v>
       </c>
       <c r="C16">
-        <v>0.9099712182343183</v>
+        <v>0.897780587650999</v>
       </c>
       <c r="D16">
-        <v>0.01728490180961018</v>
+        <v>0.01919900110096862</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.665009077001287</v>
+        <v>3.671401020982159</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000766561918193878</v>
       </c>
       <c r="H16">
-        <v>2.030418666025625</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.09520104771445048</v>
+        <v>2.039686086519339</v>
       </c>
       <c r="J16">
-        <v>0.8491495041772907</v>
+        <v>0.09447267044794216</v>
       </c>
       <c r="K16">
-        <v>0.282656691156248</v>
+        <v>0.8412209787352936</v>
       </c>
       <c r="L16">
-        <v>0.9131500848165928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2817441261514446</v>
+      </c>
+      <c r="M16">
+        <v>0.9088624279366044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.670829132427514</v>
+        <v>2.649673547926227</v>
       </c>
       <c r="C17">
-        <v>0.8678148793614469</v>
+        <v>0.856142018490516</v>
       </c>
       <c r="D17">
-        <v>0.01724096046208246</v>
+        <v>0.01919169547183941</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.522993461253179</v>
+        <v>3.53097208248127</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007703042290481364</v>
       </c>
       <c r="H17">
-        <v>1.959749963405898</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09199013271441103</v>
+        <v>1.969883719594677</v>
       </c>
       <c r="J17">
-        <v>0.8102297689101334</v>
+        <v>0.09125896936901512</v>
       </c>
       <c r="K17">
-        <v>0.2700885520784908</v>
+        <v>0.8026706373324757</v>
       </c>
       <c r="L17">
-        <v>0.8714817776013106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2692175118899343</v>
+      </c>
+      <c r="M17">
+        <v>0.867456158926494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.597973725327336</v>
+        <v>2.577431471199191</v>
       </c>
       <c r="C18">
-        <v>0.8437775654600159</v>
+        <v>0.8324006831369957</v>
       </c>
       <c r="D18">
-        <v>0.01721926416441377</v>
+        <v>0.01919090191301009</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.442282248320907</v>
+        <v>3.451165544747482</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007724628956695678</v>
       </c>
       <c r="H18">
-        <v>1.919633497178907</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09016803398553819</v>
+        <v>1.930261160713954</v>
       </c>
       <c r="J18">
-        <v>0.7880205020753621</v>
+        <v>0.089435042667521</v>
       </c>
       <c r="K18">
-        <v>0.2629306090714465</v>
+        <v>0.7806725092538542</v>
       </c>
       <c r="L18">
-        <v>0.847720011596941</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2620828187381079</v>
+      </c>
+      <c r="M18">
+        <v>0.8438434488129616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.573396935806727</v>
+        <v>2.553061726864087</v>
       </c>
       <c r="C19">
-        <v>0.8356731711071461</v>
+        <v>0.8243962206104811</v>
       </c>
       <c r="D19">
-        <v>0.01721250126604801</v>
+        <v>0.01919118920087826</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.415114763260334</v>
+        <v>3.424303115022411</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007731949377014491</v>
       </c>
       <c r="H19">
-        <v>1.906138069251696</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.08955517922323253</v>
+        <v>1.91693226865921</v>
       </c>
       <c r="J19">
-        <v>0.7805296123702306</v>
+        <v>0.08882153181280472</v>
       </c>
       <c r="K19">
-        <v>0.2605186881148711</v>
+        <v>0.7732529032936029</v>
       </c>
       <c r="L19">
-        <v>0.8397082049325206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2596786668878011</v>
+      </c>
+      <c r="M19">
+        <v>0.8358818460896487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.684357257793238</v>
+        <v>2.663087849836415</v>
       </c>
       <c r="C20">
-        <v>0.87228033086447</v>
+        <v>0.8605525497143276</v>
       </c>
       <c r="D20">
-        <v>0.01724526025250483</v>
+        <v>0.01919211330088544</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.538008923125631</v>
+        <v>3.545819488528281</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000769905235218466</v>
       </c>
       <c r="H20">
-        <v>1.967216977467388</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.092329338835345</v>
+        <v>1.977258979340817</v>
       </c>
       <c r="J20">
-        <v>0.8143542299973774</v>
+        <v>0.09159849578788126</v>
       </c>
       <c r="K20">
-        <v>0.2714189810280487</v>
+        <v>0.8067559188598281</v>
       </c>
       <c r="L20">
-        <v>0.8758958537316559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2705435875378868</v>
+      </c>
+      <c r="M20">
+        <v>0.8718425178225999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.064177897112074</v>
+        <v>3.039716285809959</v>
       </c>
       <c r="C21">
-        <v>0.9979264056903219</v>
+        <v>0.98465942920987</v>
       </c>
       <c r="D21">
-        <v>0.01740055975432497</v>
+        <v>0.01923827756760943</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.963088522183455</v>
+        <v>3.966166143568643</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007589190548506973</v>
       </c>
       <c r="H21">
-        <v>2.179064413761537</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1019590994962449</v>
+        <v>2.186521888142295</v>
       </c>
       <c r="J21">
-        <v>0.9302247860047004</v>
+        <v>0.1012348587145873</v>
       </c>
       <c r="K21">
-        <v>0.3089324672872706</v>
+        <v>0.9215281886342268</v>
       </c>
       <c r="L21">
-        <v>1.000056616069351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3079301673095998</v>
+      </c>
+      <c r="M21">
+        <v>0.9952190876226084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.318522559710232</v>
+        <v>3.291921089320624</v>
       </c>
       <c r="C22">
-        <v>1.082365464161654</v>
+        <v>1.068067865386979</v>
       </c>
       <c r="D22">
-        <v>0.01754184801936631</v>
+        <v>0.01930624439143713</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.251310196789177</v>
+        <v>4.251195317506586</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007517714477252441</v>
       </c>
       <c r="H22">
-        <v>2.323171493770488</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1085153643047718</v>
+        <v>2.328885260941291</v>
       </c>
       <c r="J22">
-        <v>1.007894891741572</v>
+        <v>0.1077930237958995</v>
       </c>
       <c r="K22">
-        <v>0.3342159245306533</v>
+        <v>0.9984626084065695</v>
       </c>
       <c r="L22">
-        <v>1.083433355135512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.333123477774393</v>
+      </c>
+      <c r="M22">
+        <v>1.078062961652265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.182153901723836</v>
+        <v>3.156700387903925</v>
       </c>
       <c r="C23">
-        <v>1.037062359912056</v>
+        <v>1.023317535090086</v>
       </c>
       <c r="D23">
-        <v>0.01746237398046802</v>
+        <v>0.0192661121781228</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.096436584858367</v>
+        <v>4.098036229368915</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007555844741507718</v>
       </c>
       <c r="H23">
-        <v>2.24569269252963</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1049899007308035</v>
+        <v>2.252342941004045</v>
       </c>
       <c r="J23">
-        <v>0.9662436074609957</v>
+        <v>0.1042667893118221</v>
       </c>
       <c r="K23">
-        <v>0.3206444725804403</v>
+        <v>0.9572059402685653</v>
       </c>
       <c r="L23">
-        <v>1.038708092682711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3196008833965038</v>
+      </c>
+      <c r="M23">
+        <v>1.033624263382933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.678239576402916</v>
+        <v>2.657021639447237</v>
       </c>
       <c r="C24">
-        <v>0.8702608853875518</v>
+        <v>0.8585579388858662</v>
       </c>
       <c r="D24">
-        <v>0.01724330529199491</v>
+        <v>0.01919191386756935</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.531217537504062</v>
+        <v>3.539104104094349</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007700855978103598</v>
       </c>
       <c r="H24">
-        <v>1.963839555725656</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.092175909754733</v>
+        <v>1.973923052523887</v>
       </c>
       <c r="J24">
-        <v>0.8124890473527273</v>
+        <v>0.09144492260108095</v>
       </c>
       <c r="K24">
-        <v>0.270817284812118</v>
+        <v>0.8049084530649253</v>
       </c>
       <c r="L24">
-        <v>0.8738996502513814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2699438613751539</v>
+      </c>
+      <c r="M24">
+        <v>0.8698588502097451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.155451417042457</v>
+        <v>2.138655720760539</v>
       </c>
       <c r="C25">
-        <v>0.6981745292832784</v>
+        <v>0.6886072502286709</v>
       </c>
       <c r="D25">
-        <v>0.01714070434306336</v>
+        <v>0.01923930137689212</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.957973610643194</v>
+        <v>2.972348691320462</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007859736989483248</v>
       </c>
       <c r="H25">
-        <v>1.679695231336268</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.07928154703525436</v>
+        <v>1.693320135123216</v>
       </c>
       <c r="J25">
-        <v>0.6532252895011936</v>
+        <v>0.07853358203629313</v>
       </c>
       <c r="K25">
-        <v>0.2197247956134945</v>
+        <v>0.6471678896707047</v>
       </c>
       <c r="L25">
-        <v>0.7037824650300522</v>
+        <v>0.2190112296547895</v>
+      </c>
+      <c r="M25">
+        <v>0.7008052236846254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.769589243539542</v>
+        <v>2.454042684452475</v>
       </c>
       <c r="C2">
-        <v>0.5681751694195043</v>
+        <v>0.3774292417463698</v>
       </c>
       <c r="D2">
-        <v>0.01935229957816809</v>
+        <v>0.03345175891105656</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.578417257072999</v>
+        <v>1.434853010129189</v>
       </c>
       <c r="G2">
-        <v>0.0007979868055408783</v>
+        <v>0.0008042393532915043</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.499568279497865</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06962875444190075</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5350076980819551</v>
+        <v>0.581083171727478</v>
       </c>
       <c r="L2">
-        <v>0.1831734516269776</v>
+        <v>0.1703933678160752</v>
       </c>
       <c r="M2">
-        <v>0.5810569601994757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4223566488849571</v>
+      </c>
+      <c r="N2">
+        <v>1.076268075220732</v>
+      </c>
+      <c r="O2">
+        <v>1.117771304230629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.525186241567468</v>
+        <v>2.133840820313253</v>
       </c>
       <c r="C3">
-        <v>0.4886663004589877</v>
+        <v>0.3345576966225821</v>
       </c>
       <c r="D3">
-        <v>0.01946496541115295</v>
+        <v>0.03510920970388476</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.322781776259532</v>
+        <v>1.316319410581244</v>
       </c>
       <c r="G3">
-        <v>0.0008063680773101042</v>
+        <v>0.0008110075844934048</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.374554716691222</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06388977125455675</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4607961411160275</v>
+        <v>0.502442627207536</v>
       </c>
       <c r="L3">
-        <v>0.15967230607448</v>
+        <v>0.1563744555273772</v>
       </c>
       <c r="M3">
-        <v>0.5020930927386829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3703590227526661</v>
+      </c>
+      <c r="N3">
+        <v>1.122959963223032</v>
+      </c>
+      <c r="O3">
+        <v>1.035969533877363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.377327944026035</v>
+        <v>1.939803870239075</v>
       </c>
       <c r="C4">
-        <v>0.4406529251036488</v>
+        <v>0.3083752080545992</v>
       </c>
       <c r="D4">
-        <v>0.01954842987764494</v>
+        <v>0.03615024344483508</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.170479694457995</v>
+        <v>1.246361257212911</v>
       </c>
       <c r="G4">
-        <v>0.0008116451174659332</v>
+        <v>0.0008152866344031705</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.30040383454967</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06048907285403615</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4159224260433732</v>
+        <v>0.454687812762991</v>
       </c>
       <c r="L4">
-        <v>0.1455582405376639</v>
+        <v>0.148010737289205</v>
       </c>
       <c r="M4">
-        <v>0.4544725657293753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3389278475463016</v>
+      </c>
+      <c r="N4">
+        <v>1.153269669029811</v>
+      </c>
+      <c r="O4">
+        <v>0.9880171652873813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.317547369479229</v>
+        <v>1.861298608343191</v>
       </c>
       <c r="C5">
-        <v>0.4212582695876677</v>
+        <v>0.2977310419682482</v>
       </c>
       <c r="D5">
-        <v>0.01958556947109358</v>
+        <v>0.03658022612940259</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.109461677806863</v>
+        <v>1.218504039988304</v>
       </c>
       <c r="G5">
-        <v>0.0008138301634702527</v>
+        <v>0.0008170623893610236</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.270775730743793</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05913112338063087</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3977840572038218</v>
+        <v>0.4353417292695241</v>
       </c>
       <c r="L5">
-        <v>0.1398763613194163</v>
+        <v>0.1446592251737826</v>
       </c>
       <c r="M5">
-        <v>0.4352549667366716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3262304587576494</v>
+      </c>
+      <c r="N5">
+        <v>1.166017623350179</v>
+      </c>
+      <c r="O5">
+        <v>0.9690028144697465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.307647152033724</v>
+        <v>1.848294860130039</v>
       </c>
       <c r="C6">
-        <v>0.4180472769649555</v>
+        <v>0.2959648429715855</v>
       </c>
       <c r="D6">
-        <v>0.01959191264341165</v>
+        <v>0.03665196876822918</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.099389411326726</v>
+        <v>1.213916079159915</v>
       </c>
       <c r="G6">
-        <v>0.0008141951259524402</v>
+        <v>0.0008173592132556117</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.265889730141183</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05890723440209378</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.394780415762142</v>
+        <v>0.4321357036666313</v>
       </c>
       <c r="L6">
-        <v>0.1389368327814111</v>
+        <v>0.1441060100580103</v>
       </c>
       <c r="M6">
-        <v>0.4320744616374768</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3241283971748317</v>
+      </c>
+      <c r="N6">
+        <v>1.168157911347642</v>
+      </c>
+      <c r="O6">
+        <v>0.9658760400901656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.376519910672812</v>
+        <v>1.938742928554461</v>
       </c>
       <c r="C7">
-        <v>0.4403907082906358</v>
+        <v>0.308231566892232</v>
       </c>
       <c r="D7">
-        <v>0.01954891867377917</v>
+        <v>0.0361560191916328</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.169652705667531</v>
+        <v>1.245983002068044</v>
       </c>
       <c r="G7">
-        <v>0.0008116744435180338</v>
+        <v>0.0008153104519712054</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.300001959125211</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06047065014751141</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4156772391160999</v>
+        <v>0.4544264657850476</v>
       </c>
       <c r="L7">
-        <v>0.1454813426455885</v>
+        <v>0.1479653135827093</v>
       </c>
       <c r="M7">
-        <v>0.4542126651930474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3387561736225777</v>
+      </c>
+      <c r="N7">
+        <v>1.153440007357432</v>
+      </c>
+      <c r="O7">
+        <v>0.9877586563011249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.684809576147842</v>
+        <v>2.34305434304855</v>
       </c>
       <c r="C8">
-        <v>0.5405735760291464</v>
+        <v>0.3626116377079995</v>
       </c>
       <c r="D8">
-        <v>0.01938788559538551</v>
+        <v>0.03401832366025204</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.489228328182207</v>
+        <v>1.393360505619967</v>
       </c>
       <c r="G8">
-        <v>0.0008008505613174192</v>
+        <v>0.0008065480625423471</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.455880305477649</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06762247398118859</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5092593691208407</v>
+        <v>0.5538458041506615</v>
       </c>
       <c r="L8">
-        <v>0.1749986336311409</v>
+        <v>0.1655061617626501</v>
       </c>
       <c r="M8">
-        <v>0.5536326977604276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4043165422933015</v>
+      </c>
+      <c r="N8">
+        <v>1.092016884115829</v>
+      </c>
+      <c r="O8">
+        <v>1.089065761490332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.310997114805332</v>
+        <v>3.160213243815008</v>
       </c>
       <c r="C9">
-        <v>0.745004491047041</v>
+        <v>0.4708654515912087</v>
       </c>
       <c r="D9">
-        <v>0.0192093236170976</v>
+        <v>0.03001796134512391</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.159159211321054</v>
+        <v>1.707625965642691</v>
       </c>
       <c r="G9">
-        <v>0.0007805791843951026</v>
+        <v>0.0007902949222224215</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.785593754511936</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08277775707952628</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6995843111079978</v>
+        <v>0.7539628648591545</v>
       </c>
       <c r="L9">
-        <v>0.2358729204436614</v>
+        <v>0.2020639092411116</v>
       </c>
       <c r="M9">
-        <v>0.7569068589435233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5374810102757621</v>
+      </c>
+      <c r="N9">
+        <v>0.9853691091207821</v>
+      </c>
+      <c r="O9">
+        <v>1.307999880157823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.790753391660076</v>
+        <v>3.781433621675433</v>
       </c>
       <c r="C10">
-        <v>0.9025614389190082</v>
+        <v>0.5521542300661508</v>
       </c>
       <c r="D10">
-        <v>0.01920031982424675</v>
+        <v>0.02720642347837998</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.687561089276443</v>
+        <v>1.95830569726607</v>
       </c>
       <c r="G10">
-        <v>0.0007661356612473425</v>
+        <v>0.0007788465829480513</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.047725190288048</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09484283061983589</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8456447141650187</v>
+        <v>0.9055858035929134</v>
       </c>
       <c r="L10">
-        <v>0.2831834465058591</v>
+        <v>0.2305825285971963</v>
       </c>
       <c r="M10">
-        <v>0.9136159643752961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6391476343192579</v>
+      </c>
+      <c r="N10">
+        <v>0.9166245611857278</v>
+      </c>
+      <c r="O10">
+        <v>1.484618351849292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.014977408702009</v>
+        <v>4.070080243889777</v>
       </c>
       <c r="C11">
-        <v>0.9764910311585879</v>
+        <v>0.5897103316734444</v>
       </c>
       <c r="D11">
-        <v>0.01923320964797526</v>
+        <v>0.02595814835978505</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.938356217772565</v>
+        <v>2.077741409316886</v>
       </c>
       <c r="G11">
-        <v>0.0007596286722475564</v>
+        <v>0.0007737271594987666</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.172650967401481</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1005959694143606</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9139850856304861</v>
+        <v>0.9759253384800104</v>
       </c>
       <c r="L11">
-        <v>0.3054655567647444</v>
+        <v>0.2440017632707736</v>
       </c>
       <c r="M11">
-        <v>0.9871023623412398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6864861872364614</v>
+      </c>
+      <c r="N11">
+        <v>0.887737765358672</v>
+      </c>
+      <c r="O11">
+        <v>1.569244204234451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.100909258319689</v>
+        <v>4.180393673110359</v>
       </c>
       <c r="C12">
-        <v>1.004874464004786</v>
+        <v>0.6040331839492978</v>
       </c>
       <c r="D12">
-        <v>0.01925204077627285</v>
+        <v>0.02549020230549548</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.035071418975605</v>
+        <v>2.123847911212366</v>
       </c>
       <c r="G12">
-        <v>0.0007571705065337911</v>
+        <v>0.0007717996038407839</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.220905291495043</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1028186219126468</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9401890846810375</v>
+        <v>1.002791391044994</v>
       </c>
       <c r="L12">
-        <v>0.3140316709162008</v>
+        <v>0.2491552750836661</v>
       </c>
       <c r="M12">
-        <v>1.015303636515789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7045925746010795</v>
+      </c>
+      <c r="N12">
+        <v>0.8771706448810548</v>
+      </c>
+      <c r="O12">
+        <v>1.601985472468314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.082353950568461</v>
+        <v>4.156588437993832</v>
       </c>
       <c r="C13">
-        <v>0.9987432218623837</v>
+        <v>0.6009436901419747</v>
       </c>
       <c r="D13">
-        <v>0.01924768276189326</v>
+        <v>0.02559076570337515</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.014160199654754</v>
+        <v>2.113877218360955</v>
       </c>
       <c r="G13">
-        <v>0.000757699710883583</v>
+        <v>0.0007722142740350983</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.210468435610323</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1023378697174913</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9345302191688631</v>
+        <v>0.9969945011609127</v>
       </c>
       <c r="L13">
-        <v>0.3121807645575814</v>
+        <v>0.2480420416404741</v>
       </c>
       <c r="M13">
-        <v>1.009212372349616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7006846183547069</v>
+      </c>
+      <c r="N13">
+        <v>0.8794294419975373</v>
+      </c>
+      <c r="O13">
+        <v>1.594901768240689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.022025553440187</v>
+        <v>4.079134718615819</v>
       </c>
       <c r="C14">
-        <v>0.9788179826981036</v>
+        <v>0.5908865422508427</v>
       </c>
       <c r="D14">
-        <v>0.01923462439652823</v>
+        <v>0.02591955286091974</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.946276542872113</v>
+        <v>2.08151638119169</v>
       </c>
       <c r="G14">
-        <v>0.0007594263394914558</v>
+        <v>0.0007735683669141545</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.176601073962502</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1007779079458579</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9161340655702759</v>
+        <v>0.9781308093786834</v>
       </c>
       <c r="L14">
-        <v>0.3061676051382776</v>
+        <v>0.2444242564375401</v>
       </c>
       <c r="M14">
-        <v>0.9894146537904334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6879720529632181</v>
+      </c>
+      <c r="N14">
+        <v>0.8868607773839159</v>
+      </c>
+      <c r="O14">
+        <v>1.571923425729622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.985211134090719</v>
+        <v>4.031827897309881</v>
       </c>
       <c r="C15">
-        <v>0.9666657547204238</v>
+        <v>0.5847399987156905</v>
       </c>
       <c r="D15">
-        <v>0.01922749064364027</v>
+        <v>0.02612157382269897</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.90493090675443</v>
+        <v>2.061812102934098</v>
       </c>
       <c r="G15">
-        <v>0.0007604846130581539</v>
+        <v>0.0007743991757623691</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.155983936057439</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09982831686419402</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.904909888999029</v>
+        <v>0.9666072674096</v>
       </c>
       <c r="L15">
-        <v>0.3025016975386237</v>
+        <v>0.2422178725000066</v>
       </c>
       <c r="M15">
-        <v>0.9773384693441614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6802094634042319</v>
+      </c>
+      <c r="N15">
+        <v>0.8914619937272121</v>
+      </c>
+      <c r="O15">
+        <v>1.557941588807552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.776233601541776</v>
+        <v>3.762703195691643</v>
       </c>
       <c r="C16">
-        <v>0.897780587650999</v>
+        <v>0.5497129731797372</v>
       </c>
       <c r="D16">
-        <v>0.01919900110096862</v>
+        <v>0.02728864621361371</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.671401020982159</v>
+        <v>1.95061745052314</v>
       </c>
       <c r="G16">
-        <v>0.000766561918193878</v>
+        <v>0.0007791827913917586</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.039686086519339</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09447267044794216</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8412209787352936</v>
+        <v>0.9010192200267824</v>
       </c>
       <c r="L16">
-        <v>0.2817441261514446</v>
+        <v>0.229715173788577</v>
       </c>
       <c r="M16">
-        <v>0.9088624279366044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6360778393673101</v>
+      </c>
+      <c r="N16">
+        <v>0.9185627612268163</v>
+      </c>
+      <c r="O16">
+        <v>1.479180616880811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.649673547926227</v>
+        <v>3.599247985348029</v>
       </c>
       <c r="C17">
-        <v>0.856142018490516</v>
+        <v>0.5283851835833104</v>
       </c>
       <c r="D17">
-        <v>0.01919169547183941</v>
+        <v>0.02801269075393265</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.53097208248127</v>
+        <v>1.883855619620917</v>
       </c>
       <c r="G17">
-        <v>0.0007703042290481364</v>
+        <v>0.0007821389151312832</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.969883719594677</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09125896936901512</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8026706373324757</v>
+        <v>0.8611556242424854</v>
       </c>
       <c r="L17">
-        <v>0.2692175118899343</v>
+        <v>0.2221647092725334</v>
       </c>
       <c r="M17">
-        <v>0.867456158926494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6092996747654098</v>
+      </c>
+      <c r="N17">
+        <v>0.9358185959049763</v>
+      </c>
+      <c r="O17">
+        <v>1.432013852752561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.577431471199191</v>
+        <v>3.505793193743898</v>
       </c>
       <c r="C18">
-        <v>0.8324006831369957</v>
+        <v>0.5161711513442526</v>
       </c>
       <c r="D18">
-        <v>0.01919090191301009</v>
+        <v>0.02843200913922006</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.451165544747482</v>
+        <v>1.845957541697715</v>
       </c>
       <c r="G18">
-        <v>0.0007724628956695678</v>
+        <v>0.0007838476370764294</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.930261160713954</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.089435042667521</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7806725092538542</v>
+        <v>0.8383534476119081</v>
       </c>
       <c r="L18">
-        <v>0.2620828187381079</v>
+        <v>0.2178633469365678</v>
       </c>
       <c r="M18">
-        <v>0.8438434488129616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5939986179100174</v>
+      </c>
+      <c r="N18">
+        <v>0.9459663338228594</v>
+      </c>
+      <c r="O18">
+        <v>1.405282495570034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.553061726864087</v>
+        <v>3.474243240685666</v>
       </c>
       <c r="C19">
-        <v>0.8243962206104811</v>
+        <v>0.5120442988758214</v>
       </c>
       <c r="D19">
-        <v>0.01919118920087826</v>
+        <v>0.02857446638249161</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.424303115022411</v>
+        <v>1.833209108217702</v>
       </c>
       <c r="G19">
-        <v>0.0007731949377014491</v>
+        <v>0.0007844276780784147</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.91693226865921</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08882153181280472</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7732529032936029</v>
+        <v>0.8306537495973032</v>
       </c>
       <c r="L19">
-        <v>0.2596786668878011</v>
+        <v>0.216413875966964</v>
       </c>
       <c r="M19">
-        <v>0.8358818460896487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5888346172808099</v>
+      </c>
+      <c r="N19">
+        <v>0.9494395989439184</v>
+      </c>
+      <c r="O19">
+        <v>1.396297736830476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.663087849836415</v>
+        <v>3.616589119232515</v>
       </c>
       <c r="C20">
-        <v>0.8605525497143276</v>
+        <v>0.5306499377653324</v>
       </c>
       <c r="D20">
-        <v>0.01919211330088544</v>
+        <v>0.02793531601896859</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.545819488528281</v>
+        <v>1.890909914977996</v>
       </c>
       <c r="G20">
-        <v>0.000769905235218466</v>
+        <v>0.0007818233690564965</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.977258979340817</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09159849578788126</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8067559188598281</v>
+        <v>0.8653858673990271</v>
       </c>
       <c r="L20">
-        <v>0.2705435875378868</v>
+        <v>0.2229641235593789</v>
       </c>
       <c r="M20">
-        <v>0.8718425178225999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6121396364189806</v>
+      </c>
+      <c r="N20">
+        <v>0.9339584429842631</v>
+      </c>
+      <c r="O20">
+        <v>1.436993123290051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.039716285809959</v>
+        <v>4.101856179048127</v>
       </c>
       <c r="C21">
-        <v>0.98465942920987</v>
+        <v>0.5938376694895169</v>
       </c>
       <c r="D21">
-        <v>0.01923827756760943</v>
+        <v>0.02582284826805425</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.966166143568643</v>
+        <v>2.090996822947076</v>
       </c>
       <c r="G21">
-        <v>0.0007589190548506973</v>
+        <v>0.0007731703510368833</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.186521888142295</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1012348587145873</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9215281886342268</v>
+        <v>0.9836650042985866</v>
       </c>
       <c r="L21">
-        <v>0.3079301673095998</v>
+        <v>0.2454848690251197</v>
       </c>
       <c r="M21">
-        <v>0.9952190876226084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6917009476576226</v>
+      </c>
+      <c r="N21">
+        <v>0.8846676824093365</v>
+      </c>
+      <c r="O21">
+        <v>1.578653173298875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.291921089320624</v>
+        <v>4.424964635680396</v>
       </c>
       <c r="C22">
-        <v>1.068067865386979</v>
+        <v>0.635734216029789</v>
       </c>
       <c r="D22">
-        <v>0.01930624439143713</v>
+        <v>0.02447010787763748</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.251195317506586</v>
+        <v>2.22694323897602</v>
       </c>
       <c r="G22">
-        <v>0.0007517714477252441</v>
+        <v>0.0007675786615567448</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.328885260941291</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1077930237958995</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9984626084065695</v>
+        <v>1.062326238772059</v>
       </c>
       <c r="L22">
-        <v>0.333123477774393</v>
+        <v>0.2606270138679037</v>
       </c>
       <c r="M22">
-        <v>1.078062961652265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7447626461632382</v>
+      </c>
+      <c r="N22">
+        <v>0.8546354536325325</v>
+      </c>
+      <c r="O22">
+        <v>1.675332437375715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.156700387903925</v>
+        <v>4.25192033591992</v>
       </c>
       <c r="C23">
-        <v>1.023317535090086</v>
+        <v>0.6133118044637342</v>
       </c>
       <c r="D23">
-        <v>0.0192661121781228</v>
+        <v>0.02518941339473368</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.098036229368915</v>
+        <v>2.153875507802169</v>
       </c>
       <c r="G23">
-        <v>0.0007555844741507718</v>
+        <v>0.0007705578322609822</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.252342941004045</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1042667893118221</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9572059402685653</v>
+        <v>1.020206801459338</v>
       </c>
       <c r="L23">
-        <v>0.3196008833965038</v>
+        <v>0.252503818006744</v>
       </c>
       <c r="M23">
-        <v>1.033624263382933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7163368149191456</v>
+      </c>
+      <c r="N23">
+        <v>0.8704542290436663</v>
+      </c>
+      <c r="O23">
+        <v>1.623329415775018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.657021639447237</v>
+        <v>3.608747590145924</v>
       </c>
       <c r="C24">
-        <v>0.8585579388858662</v>
+        <v>0.5296258954861059</v>
       </c>
       <c r="D24">
-        <v>0.01919191386756935</v>
+        <v>0.02797028764364917</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.539104104094349</v>
+        <v>1.887719167498673</v>
       </c>
       <c r="G24">
-        <v>0.0007700855978103598</v>
+        <v>0.0007819659985973927</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.973923052523887</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09144492260108095</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8049084530649253</v>
+        <v>0.8634730158505306</v>
       </c>
       <c r="L24">
-        <v>0.2699438613751539</v>
+        <v>0.222602585905932</v>
       </c>
       <c r="M24">
-        <v>0.8698588502097451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6108553985093437</v>
+      </c>
+      <c r="N24">
+        <v>0.9347987127922153</v>
+      </c>
+      <c r="O24">
+        <v>1.434740800420741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.138655720760539</v>
+        <v>2.935959131350728</v>
       </c>
       <c r="C25">
-        <v>0.6886072502286709</v>
+        <v>0.4413322301422227</v>
       </c>
       <c r="D25">
-        <v>0.01923930137689212</v>
+        <v>0.03107866963281536</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.972348691320462</v>
+        <v>1.61947655181217</v>
       </c>
       <c r="G25">
-        <v>0.0007859736989483248</v>
+        <v>0.0007945995352082588</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.693320135123216</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07853358203629313</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6471678896707047</v>
+        <v>0.6991321968935154</v>
       </c>
       <c r="L25">
-        <v>0.2190112296547895</v>
+        <v>0.1919092692352109</v>
       </c>
       <c r="M25">
-        <v>0.7008052236846254</v>
+        <v>0.5008637825752373</v>
+      </c>
+      <c r="N25">
+        <v>1.012626260734777</v>
+      </c>
+      <c r="O25">
+        <v>1.246269880690704</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.454042684452475</v>
+        <v>0.5665085913853147</v>
       </c>
       <c r="C2">
-        <v>0.3774292417463698</v>
+        <v>0.05142527487794268</v>
       </c>
       <c r="D2">
-        <v>0.03345175891105656</v>
+        <v>0.4017472601606897</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.434853010129189</v>
+        <v>6.756371553205696</v>
       </c>
       <c r="G2">
-        <v>0.0008042393532915043</v>
+        <v>0.0008202813277064114</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.581083171727478</v>
+        <v>0.5228814307870664</v>
       </c>
       <c r="L2">
-        <v>0.1703933678160752</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4223566488849571</v>
+        <v>2.700564544644678</v>
       </c>
       <c r="N2">
-        <v>1.076268075220732</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.117771304230629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.133840820313253</v>
+        <v>0.486604573167881</v>
       </c>
       <c r="C3">
-        <v>0.3345576966225821</v>
+        <v>0.04375388540622538</v>
       </c>
       <c r="D3">
-        <v>0.03510920970388476</v>
+        <v>0.36123504769769</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.316319410581244</v>
+        <v>5.98534159000107</v>
       </c>
       <c r="G3">
-        <v>0.0008110075844934048</v>
+        <v>0.000829262334185133</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.502442627207536</v>
+        <v>0.4464375359232662</v>
       </c>
       <c r="L3">
-        <v>0.1563744555273772</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3703590227526661</v>
+        <v>2.289994812525435</v>
       </c>
       <c r="N3">
-        <v>1.122959963223032</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.035969533877363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.939803870239075</v>
+        <v>0.4388756651058401</v>
       </c>
       <c r="C4">
-        <v>0.3083752080545992</v>
+        <v>0.03920495779824762</v>
       </c>
       <c r="D4">
-        <v>0.03615024344483508</v>
+        <v>0.3367691523426686</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.246361257212911</v>
+        <v>5.520665560794299</v>
       </c>
       <c r="G4">
-        <v>0.0008152866344031705</v>
+        <v>0.0008348701809011744</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.454687812762991</v>
+        <v>0.4008446897875757</v>
       </c>
       <c r="L4">
-        <v>0.148010737289205</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3389278475463016</v>
+        <v>2.048322008426965</v>
       </c>
       <c r="N4">
-        <v>1.153269669029811</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9880171652873813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.861298608343191</v>
+        <v>0.4197191795795021</v>
       </c>
       <c r="C5">
-        <v>0.2977310419682482</v>
+        <v>0.0373853266451647</v>
       </c>
       <c r="D5">
-        <v>0.03658022612940259</v>
+        <v>0.3268810543856944</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.218504039988304</v>
+        <v>5.333146589324457</v>
       </c>
       <c r="G5">
-        <v>0.0008170623893610236</v>
+        <v>0.0008371820409290013</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4353417292695241</v>
+        <v>0.382559493774778</v>
       </c>
       <c r="L5">
-        <v>0.1446592251737826</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3262304587576494</v>
+        <v>1.951988344993524</v>
       </c>
       <c r="N5">
-        <v>1.166017623350179</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9690028144697465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.848294860130039</v>
+        <v>0.4165548413033804</v>
       </c>
       <c r="C6">
-        <v>0.2959648429715855</v>
+        <v>0.03708505994983113</v>
       </c>
       <c r="D6">
-        <v>0.03665196876822918</v>
+        <v>0.3252435266528977</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.213916079159915</v>
+        <v>5.302110653131905</v>
       </c>
       <c r="G6">
-        <v>0.0008173592132556117</v>
+        <v>0.000837567615022168</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4321357036666313</v>
+        <v>0.3795398251094753</v>
       </c>
       <c r="L6">
-        <v>0.1441060100580103</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3241283971748317</v>
+        <v>1.936109750002231</v>
       </c>
       <c r="N6">
-        <v>1.168157911347642</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9658760400901656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.938742928554461</v>
+        <v>0.4386161780410447</v>
       </c>
       <c r="C7">
-        <v>0.308231566892232</v>
+        <v>0.03918028767577653</v>
       </c>
       <c r="D7">
-        <v>0.0361560191916328</v>
+        <v>0.3366354920595143</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.245983002068044</v>
+        <v>5.518129606707191</v>
       </c>
       <c r="G7">
-        <v>0.0008153104519712054</v>
+        <v>0.0008349012477975673</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4544264657850476</v>
+        <v>0.4005969525025961</v>
       </c>
       <c r="L7">
-        <v>0.1479653135827093</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3387561736225777</v>
+        <v>2.047014679802302</v>
       </c>
       <c r="N7">
-        <v>1.153440007357432</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9877586563011249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.34305434304855</v>
+        <v>0.5386547326688174</v>
       </c>
       <c r="C8">
-        <v>0.3626116377079995</v>
+        <v>0.04874259105670831</v>
       </c>
       <c r="D8">
-        <v>0.03401832366025204</v>
+        <v>0.3876805064504936</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.393360505619967</v>
+        <v>6.488478165029164</v>
       </c>
       <c r="G8">
-        <v>0.0008065480625423471</v>
+        <v>0.0008233605811552353</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5538458041506615</v>
+        <v>0.4962169271182546</v>
       </c>
       <c r="L8">
-        <v>0.1655061617626501</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4043165422933015</v>
+        <v>2.556529004319174</v>
       </c>
       <c r="N8">
-        <v>1.092016884115829</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.089065761490332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.160213243815008</v>
+        <v>0.7475311631383192</v>
       </c>
       <c r="C9">
-        <v>0.4708654515912087</v>
+        <v>0.0691043130881539</v>
       </c>
       <c r="D9">
-        <v>0.03001796134512391</v>
+        <v>0.4921102783908822</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.707625965642691</v>
+        <v>8.479367350676768</v>
       </c>
       <c r="G9">
-        <v>0.0007902949222224215</v>
+        <v>0.0008013051065225295</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7539628648591545</v>
+        <v>0.6966223567363272</v>
       </c>
       <c r="L9">
-        <v>0.2020639092411116</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5374810102757621</v>
+        <v>3.664812057169399</v>
       </c>
       <c r="N9">
-        <v>0.9853691091207821</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.307999880157823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.781433621675433</v>
+        <v>0.9121650243897079</v>
       </c>
       <c r="C10">
-        <v>0.5521542300661508</v>
+        <v>0.0855740388418269</v>
       </c>
       <c r="D10">
-        <v>0.02720642347837998</v>
+        <v>0.573286200570351</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.95830569726607</v>
+        <v>10.02694855485709</v>
       </c>
       <c r="G10">
-        <v>0.0007788465829480513</v>
+        <v>0.0007851670419047247</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9055858035929134</v>
+        <v>0.8553060205910015</v>
       </c>
       <c r="L10">
-        <v>0.2305825285971963</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6391476343192579</v>
+        <v>4.594308784458278</v>
       </c>
       <c r="N10">
-        <v>0.9166245611857278</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.484618351849292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.070080243889777</v>
+        <v>0.9904143533513547</v>
       </c>
       <c r="C11">
-        <v>0.5897103316734444</v>
+        <v>0.09353571881845824</v>
       </c>
       <c r="D11">
-        <v>0.02595814835978505</v>
+        <v>0.6117009525869719</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.077741409316886</v>
+        <v>10.75836565607585</v>
       </c>
       <c r="G11">
-        <v>0.0007737271594987666</v>
+        <v>0.0007777542665294394</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9759253384800104</v>
+        <v>0.930945243113257</v>
       </c>
       <c r="L11">
-        <v>0.2440017632707736</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6864861872364614</v>
+        <v>5.058243491288252</v>
       </c>
       <c r="N11">
-        <v>0.887737765358672</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.569244204234451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.180393673110359</v>
+        <v>1.020621778250671</v>
       </c>
       <c r="C12">
-        <v>0.6040331839492978</v>
+        <v>0.09663219117858546</v>
       </c>
       <c r="D12">
-        <v>0.02549020230549548</v>
+        <v>0.6265175947561943</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.123847911212366</v>
+        <v>11.04024333636204</v>
       </c>
       <c r="G12">
-        <v>0.0007717996038407839</v>
+        <v>0.0007749272991238556</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.002791391044994</v>
+        <v>0.9601813925398801</v>
       </c>
       <c r="L12">
-        <v>0.2491552750836661</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7045925746010795</v>
+        <v>5.241799497838244</v>
       </c>
       <c r="N12">
-        <v>0.8771706448810548</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.601985472468314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.156588437993832</v>
+        <v>1.014088774916587</v>
       </c>
       <c r="C13">
-        <v>0.6009436901419747</v>
+        <v>0.09596143552320058</v>
       </c>
       <c r="D13">
-        <v>0.02559076570337515</v>
+        <v>0.6233135213253433</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.113877218360955</v>
+        <v>10.97929974187355</v>
       </c>
       <c r="G13">
-        <v>0.0007722142740350983</v>
+        <v>0.0007755372072589167</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9969945011609127</v>
+        <v>0.9538567604676871</v>
       </c>
       <c r="L13">
-        <v>0.2480420416404741</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7006846183547069</v>
+        <v>5.201877968220117</v>
       </c>
       <c r="N13">
-        <v>0.8794294419975373</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.594901768240689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.079134718615819</v>
+        <v>0.9928873945910937</v>
       </c>
       <c r="C14">
-        <v>0.5908865422508427</v>
+        <v>0.09378874454046837</v>
       </c>
       <c r="D14">
-        <v>0.02591955286091974</v>
+        <v>0.6129141483654905</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.08151638119169</v>
+        <v>10.78145118903717</v>
       </c>
       <c r="G14">
-        <v>0.0007735683669141545</v>
+        <v>0.0007775221546295261</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9781308093786834</v>
+        <v>0.933338016141704</v>
       </c>
       <c r="L14">
-        <v>0.2444242564375401</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6879720529632181</v>
+        <v>5.073173086939832</v>
       </c>
       <c r="N14">
-        <v>0.8868607773839159</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.571923425729622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.031827897309881</v>
+        <v>0.9799790230389647</v>
       </c>
       <c r="C15">
-        <v>0.5847399987156905</v>
+        <v>0.09246898435740292</v>
       </c>
       <c r="D15">
-        <v>0.02612157382269897</v>
+        <v>0.6065812675330733</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.061812102934098</v>
+        <v>10.66093484343315</v>
       </c>
       <c r="G15">
-        <v>0.0007743991757623691</v>
+        <v>0.0007787350648084263</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9666072674096</v>
+        <v>0.9208501004423226</v>
       </c>
       <c r="L15">
-        <v>0.2422178725000066</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6802094634042319</v>
+        <v>4.995433606760301</v>
       </c>
       <c r="N15">
-        <v>0.8914619937272121</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.557941588807552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.762703195691643</v>
+        <v>0.9071264057122619</v>
       </c>
       <c r="C16">
-        <v>0.5497129731797372</v>
+        <v>0.08506432313291157</v>
       </c>
       <c r="D16">
-        <v>0.02728864621361371</v>
+        <v>0.5708101142199666</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.95061745052314</v>
+        <v>9.979777540669829</v>
       </c>
       <c r="G16">
-        <v>0.0007791827913917586</v>
+        <v>0.0007856492834475875</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9010192200267824</v>
+        <v>0.8504402009820211</v>
       </c>
       <c r="L16">
-        <v>0.229715173788577</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6360778393673101</v>
+        <v>4.564969095778849</v>
       </c>
       <c r="N16">
-        <v>0.9185627612268163</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.479180616880811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.599247985348029</v>
+        <v>0.8633548677839826</v>
       </c>
       <c r="C17">
-        <v>0.5283851835833104</v>
+        <v>0.08065137861398597</v>
       </c>
       <c r="D17">
-        <v>0.02801269075393265</v>
+        <v>0.5492823903690578</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.883855619620917</v>
+        <v>9.569547345201443</v>
       </c>
       <c r="G17">
-        <v>0.0007821389151312832</v>
+        <v>0.0007898665819826373</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8611556242424854</v>
+        <v>0.8081942602692038</v>
       </c>
       <c r="L17">
-        <v>0.2221647092725334</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6092996747654098</v>
+        <v>4.312614419988392</v>
       </c>
       <c r="N17">
-        <v>0.9358185959049763</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.432013852752561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.505793193743898</v>
+        <v>0.8384881207939259</v>
       </c>
       <c r="C18">
-        <v>0.5161711513442526</v>
+        <v>0.07815640342312236</v>
       </c>
       <c r="D18">
-        <v>0.02843200913922006</v>
+        <v>0.5370362128190607</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.845957541697715</v>
+        <v>9.336105187247483</v>
       </c>
       <c r="G18">
-        <v>0.0007838476370764294</v>
+        <v>0.0007922862368002066</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8383534476119081</v>
+        <v>0.7842138984704121</v>
       </c>
       <c r="L18">
-        <v>0.2178633469365678</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5939986179100174</v>
+        <v>4.171186392960863</v>
       </c>
       <c r="N18">
-        <v>0.9459663338228594</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.405282495570034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.474243240685666</v>
+        <v>0.830119234670974</v>
       </c>
       <c r="C19">
-        <v>0.5120442988758214</v>
+        <v>0.07731868017430088</v>
       </c>
       <c r="D19">
-        <v>0.02857446638249161</v>
+        <v>0.5329117319240027</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.833209108217702</v>
+        <v>9.2574712781676</v>
       </c>
       <c r="G19">
-        <v>0.0007844276780784147</v>
+        <v>0.0007931047070260977</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8306537495973032</v>
+        <v>0.776146556886161</v>
       </c>
       <c r="L19">
-        <v>0.216413875966964</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5888346172808099</v>
+        <v>4.123890919703399</v>
       </c>
       <c r="N19">
-        <v>0.9494395989439184</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.396297736830476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.616589119232515</v>
+        <v>0.8679817673572643</v>
       </c>
       <c r="C20">
-        <v>0.5306499377653324</v>
+        <v>0.08111657476667489</v>
       </c>
       <c r="D20">
-        <v>0.02793531601896859</v>
+        <v>0.551559615125484</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.890909914977996</v>
+        <v>9.612950878332526</v>
       </c>
       <c r="G20">
-        <v>0.0007818233690564965</v>
+        <v>0.0007894183277810295</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8653858673990271</v>
+        <v>0.8126578124685437</v>
       </c>
       <c r="L20">
-        <v>0.2229641235593789</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6121396364189806</v>
+        <v>4.339080956937352</v>
       </c>
       <c r="N20">
-        <v>0.9339584429842631</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.436993123290051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.101856179048127</v>
+        <v>0.9990982894585159</v>
       </c>
       <c r="C21">
-        <v>0.5938376694895169</v>
+        <v>0.09442458009531407</v>
       </c>
       <c r="D21">
-        <v>0.02582284826805425</v>
+        <v>0.6159608575221966</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.090996822947076</v>
+        <v>10.83942206417885</v>
       </c>
       <c r="G21">
-        <v>0.0007731703510368833</v>
+        <v>0.0007769397590429782</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9836650042985866</v>
+        <v>0.9393479150302824</v>
       </c>
       <c r="L21">
-        <v>0.2454848690251197</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6917009476576226</v>
+        <v>5.110743839386046</v>
       </c>
       <c r="N21">
-        <v>0.8846676824093365</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.578653173298875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.424964635680396</v>
+        <v>1.088205017114149</v>
       </c>
       <c r="C22">
-        <v>0.635734216029789</v>
+        <v>0.1036057120292071</v>
       </c>
       <c r="D22">
-        <v>0.02447010787763748</v>
+        <v>0.6596608065881355</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.22694323897602</v>
+        <v>11.67023093231694</v>
       </c>
       <c r="G22">
-        <v>0.0007675786615567448</v>
+        <v>0.000768661415386598</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.062326238772059</v>
+        <v>1.025662743222426</v>
       </c>
       <c r="L22">
-        <v>0.2606270138679037</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7447626461632382</v>
+        <v>5.662483007503624</v>
       </c>
       <c r="N22">
-        <v>0.8546354536325325</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.675332437375715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.25192033591992</v>
+        <v>1.040299109032929</v>
       </c>
       <c r="C23">
-        <v>0.6133118044637342</v>
+        <v>0.09865607873120297</v>
       </c>
       <c r="D23">
-        <v>0.02518941339473368</v>
+        <v>0.6361675276003496</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.153875507802169</v>
+        <v>11.22374989556909</v>
       </c>
       <c r="G23">
-        <v>0.0007705578322609822</v>
+        <v>0.0007730949717388076</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.020206801459338</v>
+        <v>0.9792366907312839</v>
       </c>
       <c r="L23">
-        <v>0.252503818006744</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7163368149191456</v>
+        <v>5.362811587141024</v>
       </c>
       <c r="N23">
-        <v>0.8704542290436663</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.623329415775018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.608747590145924</v>
+        <v>0.8658890243966084</v>
       </c>
       <c r="C24">
-        <v>0.5296258954861059</v>
+        <v>0.08090612953118637</v>
       </c>
       <c r="D24">
-        <v>0.02797028764364917</v>
+        <v>0.5505296796756909</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.887719167498673</v>
+        <v>9.593320720382195</v>
       </c>
       <c r="G24">
-        <v>0.0007819659985973927</v>
+        <v>0.0007896209981568258</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8634730158505306</v>
+        <v>0.8106388901392592</v>
       </c>
       <c r="L24">
-        <v>0.222602585905932</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6108553985093437</v>
+        <v>4.327104191449664</v>
       </c>
       <c r="N24">
-        <v>0.9347987127922153</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.434740800420741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.935959131350728</v>
+        <v>0.6893399477159505</v>
       </c>
       <c r="C25">
-        <v>0.4413322301422227</v>
+        <v>0.0633733653930193</v>
       </c>
       <c r="D25">
-        <v>0.03107866963281536</v>
+        <v>0.4632275089109328</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.61947655181217</v>
+        <v>7.928459047843148</v>
       </c>
       <c r="G25">
-        <v>0.0007945995352082588</v>
+        <v>0.0008072360420642513</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6991321968935154</v>
+        <v>0.6406868390238998</v>
       </c>
       <c r="L25">
-        <v>0.1919092692352109</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5008637825752373</v>
+        <v>3.349042605690371</v>
       </c>
       <c r="N25">
-        <v>1.012626260734777</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.246269880690704</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5665085913853147</v>
+        <v>0.3341098981171911</v>
       </c>
       <c r="C2">
-        <v>0.05142527487794268</v>
+        <v>0.008798438739674452</v>
       </c>
       <c r="D2">
-        <v>0.4017472601606897</v>
+        <v>0.206802659972027</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.756371553205696</v>
+        <v>3.672583135881155</v>
       </c>
       <c r="G2">
-        <v>0.0008202813277064114</v>
+        <v>0.002523304540212878</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5228814307870664</v>
+        <v>0.2653096789746172</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.700564544644678</v>
+        <v>0.8704095663614595</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.486604573167881</v>
+        <v>0.3199864335167604</v>
       </c>
       <c r="C3">
-        <v>0.04375388540622538</v>
+        <v>0.0077503197459734</v>
       </c>
       <c r="D3">
-        <v>0.36123504769769</v>
+        <v>0.1943692210197128</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.98534159000107</v>
+        <v>3.447555269781219</v>
       </c>
       <c r="G3">
-        <v>0.000829262334185133</v>
+        <v>0.002528109740544025</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4464375359232662</v>
+        <v>0.2526750490284684</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.289994812525435</v>
+        <v>0.7758949721506099</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4388756651058401</v>
+        <v>0.3117317880673056</v>
       </c>
       <c r="C4">
-        <v>0.03920495779824762</v>
+        <v>0.007134244760571562</v>
       </c>
       <c r="D4">
-        <v>0.3367691523426686</v>
+        <v>0.1866733306180492</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.520665560794299</v>
+        <v>3.309488888319578</v>
       </c>
       <c r="G4">
-        <v>0.0008348701809011744</v>
+        <v>0.002531206939190067</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4008446897875757</v>
+        <v>0.2453169343437764</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.048322008426965</v>
+        <v>0.7184347792257029</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4197191795795021</v>
+        <v>0.3084724372897227</v>
       </c>
       <c r="C5">
-        <v>0.0373853266451647</v>
+        <v>0.006889948497232012</v>
       </c>
       <c r="D5">
-        <v>0.3268810543856944</v>
+        <v>0.1835211339449216</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.333146589324457</v>
+        <v>3.253245242944899</v>
       </c>
       <c r="G5">
-        <v>0.0008371820409290013</v>
+        <v>0.002532506130452861</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.382559493774778</v>
+        <v>0.2424183630181886</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.951988344993524</v>
+        <v>0.6951560736520719</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4165548413033804</v>
+        <v>0.3079375228522849</v>
       </c>
       <c r="C6">
-        <v>0.03708505994983113</v>
+        <v>0.00684978719024798</v>
       </c>
       <c r="D6">
-        <v>0.3252435266528977</v>
+        <v>0.1829967283893978</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.302110653131905</v>
+        <v>3.243907032924312</v>
       </c>
       <c r="G6">
-        <v>0.000837567615022168</v>
+        <v>0.002532724102882204</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3795398251094753</v>
+        <v>0.2419430761643042</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.936109750002231</v>
+        <v>0.6912987197536609</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4386161780410447</v>
+        <v>0.3116874088258044</v>
       </c>
       <c r="C7">
-        <v>0.03918028767577653</v>
+        <v>0.007130922923778371</v>
       </c>
       <c r="D7">
-        <v>0.3366354920595143</v>
+        <v>0.1866308847277622</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.518129606707191</v>
+        <v>3.30873029571859</v>
       </c>
       <c r="G7">
-        <v>0.0008349012477975673</v>
+        <v>0.00253122431024782</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4005969525025961</v>
+        <v>0.2452774393569683</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.047014679802302</v>
+        <v>0.7181202898653964</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5386547326688174</v>
+        <v>0.329153266463976</v>
       </c>
       <c r="C8">
-        <v>0.04874259105670831</v>
+        <v>0.008431254439749125</v>
       </c>
       <c r="D8">
-        <v>0.3876805064504936</v>
+        <v>0.2025280882402001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.488478165029164</v>
+        <v>3.594968719755599</v>
       </c>
       <c r="G8">
-        <v>0.0008233605811552353</v>
+        <v>0.002524930996756054</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4962169271182546</v>
+        <v>0.2608699748047911</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.556529004319174</v>
+        <v>0.8376978531240837</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7475311631383192</v>
+        <v>0.3667366349352505</v>
       </c>
       <c r="C9">
-        <v>0.0691043130881539</v>
+        <v>0.01120610493582319</v>
       </c>
       <c r="D9">
-        <v>0.4921102783908822</v>
+        <v>0.2332384418240849</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.479367350676768</v>
+        <v>4.157388103273945</v>
       </c>
       <c r="G9">
-        <v>0.0008013051065225295</v>
+        <v>0.002513747755169466</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6966223567363272</v>
+        <v>0.2946456681384859</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.664812057169399</v>
+        <v>1.077065027695227</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9121650243897079</v>
+        <v>0.3964164753866442</v>
       </c>
       <c r="C10">
-        <v>0.0855740388418269</v>
+        <v>0.01339170904117282</v>
       </c>
       <c r="D10">
-        <v>0.573286200570351</v>
+        <v>0.2555556427807346</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.02694855485709</v>
+        <v>4.571728866033169</v>
       </c>
       <c r="G10">
-        <v>0.0007851670419047247</v>
+        <v>0.002506227811439577</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8553060205910015</v>
+        <v>0.3214537127178971</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.594308784458278</v>
+        <v>1.256390959914938</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9904143533513547</v>
+        <v>0.410375639598584</v>
       </c>
       <c r="C11">
-        <v>0.09353571881845824</v>
+        <v>0.01442005642113031</v>
       </c>
       <c r="D11">
-        <v>0.6117009525869719</v>
+        <v>0.2656631323887098</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.75836565607585</v>
+        <v>4.760571031368386</v>
       </c>
       <c r="G11">
-        <v>0.0007777542665294394</v>
+        <v>0.002502955958681321</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.930945243113257</v>
+        <v>0.3340918723357333</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.058243491288252</v>
+        <v>1.338833229367737</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.020621778250671</v>
+        <v>0.415728023498076</v>
       </c>
       <c r="C12">
-        <v>0.09663219117858546</v>
+        <v>0.01481454354794209</v>
       </c>
       <c r="D12">
-        <v>0.6265175947561943</v>
+        <v>0.2694847774155278</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.04024333636204</v>
+        <v>4.832139512448748</v>
       </c>
       <c r="G12">
-        <v>0.0007749272991238556</v>
+        <v>0.002501738261996535</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9601813925398801</v>
+        <v>0.338942064193219</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.241799497838244</v>
+        <v>1.3701854701104</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.014088774916587</v>
+        <v>0.4145723320933712</v>
       </c>
       <c r="C13">
-        <v>0.09596143552320058</v>
+        <v>0.01472935527505825</v>
       </c>
       <c r="D13">
-        <v>0.6233135213253433</v>
+        <v>0.2686619681704485</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.97929974187355</v>
+        <v>4.816723268261967</v>
       </c>
       <c r="G13">
-        <v>0.0007755372072589167</v>
+        <v>0.00250199957044577</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9538567604676871</v>
+        <v>0.3378946135239858</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.201877968220117</v>
+        <v>1.363427142806671</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9928873945910937</v>
+        <v>0.4108146505126626</v>
       </c>
       <c r="C14">
-        <v>0.09378874454046837</v>
+        <v>0.0144524084363411</v>
       </c>
       <c r="D14">
-        <v>0.6129141483654905</v>
+        <v>0.2659776551130335</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.78145118903717</v>
+        <v>4.766457810618704</v>
       </c>
       <c r="G14">
-        <v>0.0007775221546295261</v>
+        <v>0.002502855352218088</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.933338016141704</v>
+        <v>0.3344896059832081</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.073173086939832</v>
+        <v>1.341409878491334</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9799790230389647</v>
+        <v>0.4085216192546284</v>
       </c>
       <c r="C15">
-        <v>0.09246898435740292</v>
+        <v>0.01428343640915131</v>
       </c>
       <c r="D15">
-        <v>0.6065812675330733</v>
+        <v>0.2643326926343263</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.66093484343315</v>
+        <v>4.735676530021124</v>
       </c>
       <c r="G15">
-        <v>0.0007787350648084263</v>
+        <v>0.002503382310748715</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9208501004423226</v>
+        <v>0.3324123472999645</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.995433606760301</v>
+        <v>1.327941267278746</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9071264057122619</v>
+        <v>0.3955134662990076</v>
       </c>
       <c r="C16">
-        <v>0.08506432313291157</v>
+        <v>0.01332520488519862</v>
       </c>
       <c r="D16">
-        <v>0.5708101142199666</v>
+        <v>0.2548942448962066</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.979777540669829</v>
+        <v>4.559395337404794</v>
       </c>
       <c r="G16">
-        <v>0.0007856492834475875</v>
+        <v>0.002506444620758596</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8504402009820211</v>
+        <v>0.3206367527415352</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.564969095778849</v>
+        <v>1.251021320558124</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8633548677839826</v>
+        <v>0.38765098280507</v>
       </c>
       <c r="C17">
-        <v>0.08065137861398597</v>
+        <v>0.01274621627793238</v>
       </c>
       <c r="D17">
-        <v>0.5492823903690578</v>
+        <v>0.2490930265124405</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.569547345201443</v>
+        <v>4.451348631875021</v>
       </c>
       <c r="G17">
-        <v>0.0007898665819826373</v>
+        <v>0.002508361310710924</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8081942602692038</v>
+        <v>0.3135267645714492</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.312614419988392</v>
+        <v>1.204061279909297</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8384881207939259</v>
+        <v>0.3831717337671137</v>
       </c>
       <c r="C18">
-        <v>0.07815640342312236</v>
+        <v>0.01241639717661513</v>
       </c>
       <c r="D18">
-        <v>0.5370362128190607</v>
+        <v>0.2457520746107207</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.336105187247483</v>
+        <v>4.389236164430088</v>
       </c>
       <c r="G18">
-        <v>0.0007922862368002066</v>
+        <v>0.00250947777376731</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7842138984704121</v>
+        <v>0.3094789470633117</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.171186392960863</v>
+        <v>1.177132089164914</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.830119234670974</v>
+        <v>0.3816625135201264</v>
       </c>
       <c r="C19">
-        <v>0.07731868017430088</v>
+        <v>0.01230527052638308</v>
       </c>
       <c r="D19">
-        <v>0.5329117319240027</v>
+        <v>0.2446201388788012</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.2574712781676</v>
+        <v>4.368211437005186</v>
       </c>
       <c r="G19">
-        <v>0.0007931047070260977</v>
+        <v>0.002509858203720218</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.776146556886161</v>
+        <v>0.3081155600406476</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.123890919703399</v>
+        <v>1.16802797832095</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8679817673572643</v>
+        <v>0.3884834988836872</v>
       </c>
       <c r="C20">
-        <v>0.08111657476667489</v>
+        <v>0.01280751820944914</v>
       </c>
       <c r="D20">
-        <v>0.551559615125484</v>
+        <v>0.2497110111617644</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.612950878332526</v>
+        <v>4.462846909461376</v>
       </c>
       <c r="G20">
-        <v>0.0007894183277810295</v>
+        <v>0.002508155824274466</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8126578124685437</v>
+        <v>0.3142793184185422</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.339080956937352</v>
+        <v>1.209051813403448</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9990982894585159</v>
+        <v>0.4119165675392367</v>
       </c>
       <c r="C21">
-        <v>0.09442458009531407</v>
+        <v>0.01453361535508435</v>
       </c>
       <c r="D21">
-        <v>0.6159608575221966</v>
+        <v>0.2667662567563411</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.83942206417885</v>
+        <v>4.781220363769364</v>
       </c>
       <c r="G21">
-        <v>0.0007769397590429782</v>
+        <v>0.002502603411992059</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9393479150302824</v>
+        <v>0.3354879860316657</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.110743839386046</v>
+        <v>1.347873199421045</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.088205017114149</v>
+        <v>0.4276184405725587</v>
       </c>
       <c r="C22">
-        <v>0.1036057120292071</v>
+        <v>0.01569137701471135</v>
       </c>
       <c r="D22">
-        <v>0.6596608065881355</v>
+        <v>0.2778790719863764</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.67023093231694</v>
+        <v>4.989637426376305</v>
       </c>
       <c r="G22">
-        <v>0.000768661415386598</v>
+        <v>0.002499098575609603</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.025662743222426</v>
+        <v>0.3497247494021281</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.662483007503624</v>
+        <v>1.439381231670254</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.040299109032929</v>
+        <v>0.4192024615998378</v>
       </c>
       <c r="C23">
-        <v>0.09865607873120297</v>
+        <v>0.01507068740270512</v>
       </c>
       <c r="D23">
-        <v>0.6361675276003496</v>
+        <v>0.2719508476398005</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.22374989556909</v>
+        <v>4.878367785786963</v>
       </c>
       <c r="G23">
-        <v>0.0007730949717388076</v>
+        <v>0.002500957875640861</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9792366907312839</v>
+        <v>0.3420917161936643</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.362811587141024</v>
+        <v>1.39046737120762</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8658890243966084</v>
+        <v>0.3881069907072572</v>
       </c>
       <c r="C24">
-        <v>0.08090612953118637</v>
+        <v>0.01277979412098773</v>
       </c>
       <c r="D24">
-        <v>0.5505296796756909</v>
+        <v>0.2494316382694421</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.593320720382195</v>
+        <v>4.457648523031168</v>
       </c>
       <c r="G24">
-        <v>0.0007896209981568258</v>
+        <v>0.002508248679367469</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8106388901392592</v>
+        <v>0.3139389648782469</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.327104191449664</v>
+        <v>1.206795379680372</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6893399477159505</v>
+        <v>0.3562089081100339</v>
       </c>
       <c r="C25">
-        <v>0.0633733653930193</v>
+        <v>0.01043034996190784</v>
       </c>
       <c r="D25">
-        <v>0.4632275089109328</v>
+        <v>0.2249763288466369</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.928459047843148</v>
+        <v>4.005073464642038</v>
       </c>
       <c r="G25">
-        <v>0.0008072360420642513</v>
+        <v>0.002516650138229248</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6406868390238998</v>
+        <v>0.2851616062607434</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.349042605690371</v>
+        <v>1.011737943756032</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3341098981171911</v>
+        <v>0.5665085913848884</v>
       </c>
       <c r="C2">
-        <v>0.008798438739674452</v>
+        <v>0.05142527487747373</v>
       </c>
       <c r="D2">
-        <v>0.206802659972027</v>
+        <v>0.4017472601608603</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.672583135881155</v>
+        <v>6.756371553205753</v>
       </c>
       <c r="G2">
-        <v>0.002523304540212878</v>
+        <v>0.0008202813276037635</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2653096789746172</v>
+        <v>0.5228814307871374</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8704095663614595</v>
+        <v>2.700564544644649</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3199864335167604</v>
+        <v>0.486604573167881</v>
       </c>
       <c r="C3">
-        <v>0.0077503197459734</v>
+        <v>0.0437538854061188</v>
       </c>
       <c r="D3">
-        <v>0.1943692210197128</v>
+        <v>0.3612350476977184</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.447555269781219</v>
+        <v>5.985341590000985</v>
       </c>
       <c r="G3">
-        <v>0.002528109740544025</v>
+        <v>0.0008292623340631754</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2526750490284684</v>
+        <v>0.4464375359234793</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7758949721506099</v>
+        <v>2.289994812525535</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3117317880673056</v>
+        <v>0.4388756651058401</v>
       </c>
       <c r="C4">
-        <v>0.007134244760571562</v>
+        <v>0.0392049577977005</v>
       </c>
       <c r="D4">
-        <v>0.1866733306180492</v>
+        <v>0.3367691523429528</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.309488888319578</v>
+        <v>5.520665560794328</v>
       </c>
       <c r="G4">
-        <v>0.002531206939190067</v>
+        <v>0.0008348701808824632</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2453169343437764</v>
+        <v>0.400844689787661</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7184347792257029</v>
+        <v>2.048322008427036</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3084724372897227</v>
+        <v>0.4197191795798005</v>
       </c>
       <c r="C5">
-        <v>0.006889948497232012</v>
+        <v>0.03738532664458205</v>
       </c>
       <c r="D5">
-        <v>0.1835211339449216</v>
+        <v>0.3268810543855381</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.253245242944899</v>
+        <v>5.333146589324457</v>
       </c>
       <c r="G5">
-        <v>0.002532506130452861</v>
+        <v>0.0008371820409592646</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2424183630181886</v>
+        <v>0.3825594937749344</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6951560736520719</v>
+        <v>1.951988344993495</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3079375228522849</v>
+        <v>0.4165548413035509</v>
       </c>
       <c r="C6">
-        <v>0.00684978719024798</v>
+        <v>0.03708505994980271</v>
       </c>
       <c r="D6">
-        <v>0.1829967283893978</v>
+        <v>0.325243526652983</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.243907032924312</v>
+        <v>5.302110653131734</v>
       </c>
       <c r="G6">
-        <v>0.002532724102882204</v>
+        <v>0.0008375676151578372</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2419430761643042</v>
+        <v>0.3795398251094895</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6912987197536609</v>
+        <v>1.936109750002217</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3116874088258044</v>
+        <v>0.438616178040931</v>
       </c>
       <c r="C7">
-        <v>0.007130922923778371</v>
+        <v>0.03918028767517967</v>
       </c>
       <c r="D7">
-        <v>0.1866308847277622</v>
+        <v>0.3366354920597416</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.30873029571859</v>
+        <v>5.518129606707191</v>
       </c>
       <c r="G7">
-        <v>0.00253122431024782</v>
+        <v>0.0008349012478247723</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2452774393569683</v>
+        <v>0.4005969525026956</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7181202898653964</v>
+        <v>2.047014679802373</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.329153266463976</v>
+        <v>0.5386547326685331</v>
       </c>
       <c r="C8">
-        <v>0.008431254439749125</v>
+        <v>0.04874259105754675</v>
       </c>
       <c r="D8">
-        <v>0.2025280882402001</v>
+        <v>0.387680506450323</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.594968719755599</v>
+        <v>6.488478165029079</v>
       </c>
       <c r="G8">
-        <v>0.002524930996756054</v>
+        <v>0.0008233605810712419</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2608699748047911</v>
+        <v>0.4962169271183257</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8376978531240837</v>
+        <v>2.556529004319216</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3667366349352505</v>
+        <v>0.7475311631380634</v>
       </c>
       <c r="C9">
-        <v>0.01120610493582319</v>
+        <v>0.06910431308768494</v>
       </c>
       <c r="D9">
-        <v>0.2332384418240849</v>
+        <v>0.4921102783908964</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.157388103273945</v>
+        <v>8.479367350676796</v>
       </c>
       <c r="G9">
-        <v>0.002513747755169466</v>
+        <v>0.0008013051064061099</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2946456681384859</v>
+        <v>0.6966223567362704</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.077065027695227</v>
+        <v>3.664812057169357</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3964164753866442</v>
+        <v>0.9121650243897079</v>
       </c>
       <c r="C10">
-        <v>0.01339170904117282</v>
+        <v>0.08557403884185533</v>
       </c>
       <c r="D10">
-        <v>0.2555556427807346</v>
+        <v>0.5732862005701804</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.571728866033169</v>
+        <v>10.026948554857</v>
       </c>
       <c r="G10">
-        <v>0.002506227811439577</v>
+        <v>0.0007851670416664316</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3214537127178971</v>
+        <v>0.8553060205911436</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.256390959914938</v>
+        <v>4.594308784458235</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.410375639598584</v>
+        <v>0.9904143533513547</v>
       </c>
       <c r="C11">
-        <v>0.01442005642113031</v>
+        <v>0.09353571881852929</v>
       </c>
       <c r="D11">
-        <v>0.2656631323887098</v>
+        <v>0.6117009525869719</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.760571031368386</v>
+        <v>10.7583656560758</v>
       </c>
       <c r="G11">
-        <v>0.002502955958681321</v>
+        <v>0.0007777542661685681</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3340918723357333</v>
+        <v>0.9309452431132854</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.338833229367737</v>
+        <v>5.058243491288209</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.415728023498076</v>
+        <v>1.020621778250444</v>
       </c>
       <c r="C12">
-        <v>0.01481454354794209</v>
+        <v>0.09663219117852861</v>
       </c>
       <c r="D12">
-        <v>0.2694847774155278</v>
+        <v>0.6265175947561659</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.832139512448748</v>
+        <v>11.04024333636198</v>
       </c>
       <c r="G12">
-        <v>0.002501738261996535</v>
+        <v>0.000774927298999537</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.338942064193219</v>
+        <v>0.9601813925396812</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.3701854701104</v>
+        <v>5.241799497838286</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4145723320933712</v>
+        <v>1.014088774917042</v>
       </c>
       <c r="C13">
-        <v>0.01472935527505825</v>
+        <v>0.0959614355241456</v>
       </c>
       <c r="D13">
-        <v>0.2686619681704485</v>
+        <v>0.6233135213246328</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.816723268261967</v>
+        <v>10.97929974187355</v>
       </c>
       <c r="G13">
-        <v>0.00250199957044577</v>
+        <v>0.0007755372074944699</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3378946135239858</v>
+        <v>0.9538567604675734</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.363427142806671</v>
+        <v>5.201877968220217</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4108146505126626</v>
+        <v>0.9928873945904684</v>
       </c>
       <c r="C14">
-        <v>0.0144524084363411</v>
+        <v>0.09378874454041863</v>
       </c>
       <c r="D14">
-        <v>0.2659776551130335</v>
+        <v>0.6129141483661158</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.766457810618704</v>
+        <v>10.78145118903734</v>
       </c>
       <c r="G14">
-        <v>0.002502855352218088</v>
+        <v>0.0007775221545018834</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3344896059832081</v>
+        <v>0.9333380161417324</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.341409878491334</v>
+        <v>5.073173086939818</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4085216192546284</v>
+        <v>0.9799790230389931</v>
       </c>
       <c r="C15">
-        <v>0.01428343640915131</v>
+        <v>0.09246898435792161</v>
       </c>
       <c r="D15">
-        <v>0.2643326926343263</v>
+        <v>0.6065812675333575</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.735676530021124</v>
+        <v>10.6609348434331</v>
       </c>
       <c r="G15">
-        <v>0.002503382310748715</v>
+        <v>0.0007787350648140433</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3324123472999645</v>
+        <v>0.9208501004426353</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.327941267278746</v>
+        <v>4.995433606760301</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3955134662990076</v>
+        <v>0.9071264057129156</v>
       </c>
       <c r="C16">
-        <v>0.01332520488519862</v>
+        <v>0.08506432313431134</v>
       </c>
       <c r="D16">
-        <v>0.2548942448962066</v>
+        <v>0.5708101142199098</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.559395337404794</v>
+        <v>9.979777540669829</v>
       </c>
       <c r="G16">
-        <v>0.002506444620758596</v>
+        <v>0.0007856492834423222</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3206367527415352</v>
+        <v>0.8504402009821206</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.251021320558124</v>
+        <v>4.564969095778849</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.38765098280507</v>
+        <v>0.8633548677836416</v>
       </c>
       <c r="C17">
-        <v>0.01274621627793238</v>
+        <v>0.08065137861395755</v>
       </c>
       <c r="D17">
-        <v>0.2490930265124405</v>
+        <v>0.5492823903692283</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.451348631875021</v>
+        <v>9.569547345201499</v>
       </c>
       <c r="G17">
-        <v>0.002508361310710924</v>
+        <v>0.0007898665819720113</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3135267645714492</v>
+        <v>0.8081942602693175</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.204061279909297</v>
+        <v>4.312614419988407</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3831717337671137</v>
+        <v>0.8384881207945796</v>
       </c>
       <c r="C18">
-        <v>0.01241639717661513</v>
+        <v>0.07815640342352026</v>
       </c>
       <c r="D18">
-        <v>0.2457520746107207</v>
+        <v>0.5370362128190038</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.389236164430088</v>
+        <v>9.336105187247568</v>
       </c>
       <c r="G18">
-        <v>0.00250947777376731</v>
+        <v>0.0007922862366766525</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3094789470633117</v>
+        <v>0.7842138984703979</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.177132089164914</v>
+        <v>4.171186392960891</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3816625135201264</v>
+        <v>0.830119234670974</v>
       </c>
       <c r="C19">
-        <v>0.01230527052638308</v>
+        <v>0.07731868017385324</v>
       </c>
       <c r="D19">
-        <v>0.2446201388788012</v>
+        <v>0.5329117319242584</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.368211437005186</v>
+        <v>9.2574712781676</v>
       </c>
       <c r="G19">
-        <v>0.002509858203720218</v>
+        <v>0.0007931047070314937</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3081155600406476</v>
+        <v>0.776146556886161</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.16802797832095</v>
+        <v>4.123890919703413</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3884834988836872</v>
+        <v>0.8679817673570938</v>
       </c>
       <c r="C20">
-        <v>0.01280751820944914</v>
+        <v>0.08111657476623435</v>
       </c>
       <c r="D20">
-        <v>0.2497110111617644</v>
+        <v>0.551559615125484</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.462846909461376</v>
+        <v>9.612950878332583</v>
       </c>
       <c r="G20">
-        <v>0.002508155824274466</v>
+        <v>0.0007894183276711942</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3142793184185422</v>
+        <v>0.8126578124684727</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.209051813403448</v>
+        <v>4.339080956937352</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4119165675392367</v>
+        <v>0.9990982894583169</v>
       </c>
       <c r="C21">
-        <v>0.01453361535508435</v>
+        <v>0.09442458009529986</v>
       </c>
       <c r="D21">
-        <v>0.2667662567563411</v>
+        <v>0.6159608575221398</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.781220363769364</v>
+        <v>10.83942206417902</v>
       </c>
       <c r="G21">
-        <v>0.002502603411992059</v>
+        <v>0.0007769397589139521</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3354879860316657</v>
+        <v>0.9393479150302824</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.347873199421045</v>
+        <v>5.110743839386117</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4276184405725587</v>
+        <v>1.088205017114291</v>
       </c>
       <c r="C22">
-        <v>0.01569137701471135</v>
+        <v>0.1036057120296121</v>
       </c>
       <c r="D22">
-        <v>0.2778790719863764</v>
+        <v>0.6596608065880787</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.989637426376305</v>
+        <v>11.67023093231694</v>
       </c>
       <c r="G22">
-        <v>0.002499098575609603</v>
+        <v>0.0007686614153788955</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3497247494021281</v>
+        <v>1.025662743222426</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.439381231670254</v>
+        <v>5.662483007503639</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4192024615998378</v>
+        <v>1.040299109032702</v>
       </c>
       <c r="C23">
-        <v>0.01507068740270512</v>
+        <v>0.09865607873123139</v>
       </c>
       <c r="D23">
-        <v>0.2719508476398005</v>
+        <v>0.636167527600179</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.878367785786963</v>
+        <v>11.22374989556914</v>
       </c>
       <c r="G23">
-        <v>0.002500957875640861</v>
+        <v>0.0007730949715034175</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3420917161936643</v>
+        <v>0.9792366907311134</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.39046737120762</v>
+        <v>5.362811587140925</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3881069907072572</v>
+        <v>0.8658890243964663</v>
       </c>
       <c r="C24">
-        <v>0.01277979412098773</v>
+        <v>0.08090612953111531</v>
       </c>
       <c r="D24">
-        <v>0.2494316382694421</v>
+        <v>0.5505296796753782</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.457648523031168</v>
+        <v>9.593320720382366</v>
       </c>
       <c r="G24">
-        <v>0.002508248679367469</v>
+        <v>0.0007896209981341466</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3139389648782469</v>
+        <v>0.8106388901390744</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.206795379680372</v>
+        <v>4.327104191449678</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3562089081100339</v>
+        <v>0.6893399477157516</v>
       </c>
       <c r="C25">
-        <v>0.01043034996190784</v>
+        <v>0.06337336539391458</v>
       </c>
       <c r="D25">
-        <v>0.2249763288466369</v>
+        <v>0.4632275089107907</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.005073464642038</v>
+        <v>7.928459047843148</v>
       </c>
       <c r="G25">
-        <v>0.002516650138229248</v>
+        <v>0.000807236042180615</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2851616062607434</v>
+        <v>0.640686839023985</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.011737943756032</v>
+        <v>3.349042605690386</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5665085913848884</v>
+        <v>0.8803902563886652</v>
       </c>
       <c r="C2">
-        <v>0.05142527487747373</v>
+        <v>0.2015809869925747</v>
       </c>
       <c r="D2">
-        <v>0.4017472601608603</v>
+        <v>0.08441204837501459</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.756371553205753</v>
+        <v>0.3983846924845054</v>
       </c>
       <c r="G2">
-        <v>0.0008202813276037635</v>
+        <v>0.2981428401135204</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00347036077950541</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001563360451604101</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2810693422968598</v>
       </c>
       <c r="K2">
-        <v>0.5228814307871374</v>
+        <v>0.3389937596167627</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.700564544644649</v>
+        <v>0.7758511535779036</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2522788312718234</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2274493545939649</v>
+      </c>
+      <c r="P2">
+        <v>0.8607774250549571</v>
+      </c>
+      <c r="Q2">
+        <v>1.168470769159825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.486604573167881</v>
+        <v>0.7668838202001496</v>
       </c>
       <c r="C3">
-        <v>0.0437538854061188</v>
+        <v>0.1950250789073635</v>
       </c>
       <c r="D3">
-        <v>0.3612350476977184</v>
+        <v>0.07508750975390655</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.985341590000985</v>
+        <v>0.3808130883187602</v>
       </c>
       <c r="G3">
-        <v>0.0008292623340631754</v>
+        <v>0.2890292258895499</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004741146351094294</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002289921962052688</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2803755126301581</v>
       </c>
       <c r="K3">
-        <v>0.4464375359234793</v>
+        <v>0.3383178929321282</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.289994812525535</v>
+        <v>0.681139336923394</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2278543388037377</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1995387776980984</v>
+      </c>
+      <c r="P3">
+        <v>0.8850291623068607</v>
+      </c>
+      <c r="Q3">
+        <v>1.147456096733052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4388756651058401</v>
+        <v>0.6968272821384858</v>
       </c>
       <c r="C4">
-        <v>0.0392049577977005</v>
+        <v>0.1909689175164679</v>
       </c>
       <c r="D4">
-        <v>0.3367691523429528</v>
+        <v>0.0693589475128249</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.520665560794328</v>
+        <v>0.3703732866667906</v>
       </c>
       <c r="G4">
-        <v>0.0008348701808824632</v>
+        <v>0.2837025487130376</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005655588865478067</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002881254345342921</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2801489525433851</v>
       </c>
       <c r="K4">
-        <v>0.400844689787661</v>
+        <v>0.3380722283433322</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.048322008427036</v>
+        <v>0.6228421270289175</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2128437970673005</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1823485313498949</v>
+      </c>
+      <c r="P4">
+        <v>0.9004667622794891</v>
+      </c>
+      <c r="Q4">
+        <v>1.135534463527961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4197191795798005</v>
+        <v>0.667591456685642</v>
       </c>
       <c r="C5">
-        <v>0.03738532664458205</v>
+        <v>0.1894012966305425</v>
       </c>
       <c r="D5">
-        <v>0.3268810543855381</v>
+        <v>0.06707057690475438</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.333146589324457</v>
+        <v>0.3659379908978906</v>
       </c>
       <c r="G5">
-        <v>0.0008371820409592646</v>
+        <v>0.2813433403082328</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006063560575921362</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003231842778773864</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2799737746685196</v>
       </c>
       <c r="K5">
-        <v>0.3825594937749344</v>
+        <v>0.3377541764869463</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.951988344993495</v>
+        <v>0.5990934795636349</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2067428941147469</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1752436278914118</v>
+      </c>
+      <c r="P5">
+        <v>0.9068890060079564</v>
+      </c>
+      <c r="Q5">
+        <v>1.130101171360394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4165548413035509</v>
+        <v>0.6620023445608751</v>
       </c>
       <c r="C6">
-        <v>0.03708505994980271</v>
+        <v>0.1892571494739244</v>
       </c>
       <c r="D6">
-        <v>0.325243526652983</v>
+        <v>0.06674864059323937</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.302110653131734</v>
+        <v>0.3648819232167639</v>
       </c>
       <c r="G6">
-        <v>0.0008375676151578372</v>
+        <v>0.2806455079526842</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006136583069345281</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003390386987014438</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.279786358172295</v>
       </c>
       <c r="K6">
-        <v>0.3795398251094895</v>
+        <v>0.3373867767794145</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.936109750002217</v>
+        <v>0.5952049184462282</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2057548057412077</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1739577941993034</v>
+      </c>
+      <c r="P6">
+        <v>0.9079606865745884</v>
+      </c>
+      <c r="Q6">
+        <v>1.128218160866638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.438616178040931</v>
+        <v>0.6944357293032226</v>
       </c>
       <c r="C7">
-        <v>0.03918028767517967</v>
+        <v>0.1912688418898902</v>
       </c>
       <c r="D7">
-        <v>0.3366354920597416</v>
+        <v>0.06948743783487998</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.518129606707191</v>
+        <v>0.3694267205925854</v>
       </c>
       <c r="G7">
-        <v>0.0008349012478247723</v>
+        <v>0.2828243000931536</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00566951402785959</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003138742192390964</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2797068355939771</v>
       </c>
       <c r="K7">
-        <v>0.4005969525026956</v>
+        <v>0.3372029839616957</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.047014679802373</v>
+        <v>0.6226789803574491</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2128313158726272</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1819646241624504</v>
+      </c>
+      <c r="P7">
+        <v>0.9005563033057307</v>
+      </c>
+      <c r="Q7">
+        <v>1.132745225850925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5386547326685331</v>
+        <v>0.8386591378304047</v>
       </c>
       <c r="C8">
-        <v>0.04874259105754675</v>
+        <v>0.1997646147162513</v>
       </c>
       <c r="D8">
-        <v>0.387680506450323</v>
+        <v>0.08141054805265924</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.488478165029079</v>
+        <v>0.3910796693232328</v>
       </c>
       <c r="G8">
-        <v>0.0008233605810712419</v>
+        <v>0.2938258059178196</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003888779036319734</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00208792093432475</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2802104929016025</v>
       </c>
       <c r="K8">
-        <v>0.4962169271183257</v>
+        <v>0.3375878533534404</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.556529004319216</v>
+        <v>0.7434322019461064</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2439550921443043</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2174521420604236</v>
+      </c>
+      <c r="P8">
+        <v>0.8690782304375961</v>
+      </c>
+      <c r="Q8">
+        <v>1.157437814218582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7475311631380634</v>
+        <v>1.122248250136863</v>
       </c>
       <c r="C9">
-        <v>0.06910431308768494</v>
+        <v>0.2156469007934376</v>
       </c>
       <c r="D9">
-        <v>0.4921102783908964</v>
+        <v>0.1045038704320334</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.479367350676796</v>
+        <v>0.4380598650245773</v>
       </c>
       <c r="G9">
-        <v>0.0008013051064061099</v>
+        <v>0.3191743908725115</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001504023134676458</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0008533608483967114</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.283613242122982</v>
       </c>
       <c r="K9">
-        <v>0.6966223567362704</v>
+        <v>0.3412678670762688</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.664812057169357</v>
+        <v>0.9789440704841468</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3048025808676584</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2871676624846344</v>
+      </c>
+      <c r="P9">
+        <v>0.8117298635870629</v>
+      </c>
+      <c r="Q9">
+        <v>1.218867344712308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9121650243897079</v>
+        <v>1.320661618272851</v>
       </c>
       <c r="C10">
-        <v>0.08557403884185533</v>
+        <v>0.2292067863056317</v>
       </c>
       <c r="D10">
-        <v>0.5732862005701804</v>
+        <v>0.1223880499527326</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.026948554857</v>
+        <v>0.4699949771830276</v>
       </c>
       <c r="G10">
-        <v>0.0007851670416664316</v>
+        <v>0.334997151781657</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0007565044711443925</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0008961176182520347</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2849633561059974</v>
       </c>
       <c r="K10">
-        <v>0.8553060205911436</v>
+        <v>0.3406045743510759</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.594308784458235</v>
+        <v>1.153804505987722</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3317245878851338</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3295470733368617</v>
+      </c>
+      <c r="P10">
+        <v>0.7734212175206316</v>
+      </c>
+      <c r="Q10">
+        <v>1.255620401797785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9904143533513547</v>
+        <v>1.343888624252145</v>
       </c>
       <c r="C11">
-        <v>0.09353571881852929</v>
+        <v>0.2550461303734366</v>
       </c>
       <c r="D11">
-        <v>0.6117009525869719</v>
+        <v>0.1380188546296353</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.7583656560758</v>
+        <v>0.4475976864447233</v>
       </c>
       <c r="G11">
-        <v>0.0007777542661685681</v>
+        <v>0.3075568857500031</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01945277032794479</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001460550526487303</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2679351449573915</v>
       </c>
       <c r="K11">
-        <v>0.9309452431132854</v>
+        <v>0.3071163129360919</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.058243491288209</v>
+        <v>1.252768701827989</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2095893083100009</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2777311859307972</v>
+      </c>
+      <c r="P11">
+        <v>0.7689051435812715</v>
+      </c>
+      <c r="Q11">
+        <v>1.161944279624834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.020621778250444</v>
+        <v>1.324217350667936</v>
       </c>
       <c r="C12">
-        <v>0.09663219117852861</v>
+        <v>0.2782570234219719</v>
       </c>
       <c r="D12">
-        <v>0.6265175947561659</v>
+        <v>0.1475583234065567</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.04024333636198</v>
+        <v>0.4232698173309331</v>
       </c>
       <c r="G12">
-        <v>0.000774927298999537</v>
+        <v>0.2828805170054522</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05828874456568656</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001466150555864409</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2540718034929697</v>
       </c>
       <c r="K12">
-        <v>0.9601813925396812</v>
+        <v>0.2818555875714246</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.241799497838286</v>
+        <v>1.299939988988172</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.12849282991872</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2296099600243444</v>
+      </c>
+      <c r="P12">
+        <v>0.7781285692861175</v>
+      </c>
+      <c r="Q12">
+        <v>1.080656212755486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.014088774917042</v>
+        <v>1.267374101835344</v>
       </c>
       <c r="C13">
-        <v>0.0959614355241456</v>
+        <v>0.3009291669375642</v>
       </c>
       <c r="D13">
-        <v>0.6233135213246328</v>
+        <v>0.1531182295277489</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.97929974187355</v>
+        <v>0.3945463836241103</v>
       </c>
       <c r="G13">
-        <v>0.0007755372074944699</v>
+        <v>0.2574920042963527</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1142581480834366</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001398744183867429</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.241085438158116</v>
       </c>
       <c r="K13">
-        <v>0.9538567604675734</v>
+        <v>0.2600339500626916</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.201877968220217</v>
+        <v>1.309789265388559</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07428949562400078</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.1813597583687034</v>
+      </c>
+      <c r="P13">
+        <v>0.7976873863468228</v>
+      </c>
+      <c r="Q13">
+        <v>0.9996212852471018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9928873945904684</v>
+        <v>1.210436746555786</v>
       </c>
       <c r="C14">
-        <v>0.09378874454041863</v>
+        <v>0.3171917107028008</v>
       </c>
       <c r="D14">
-        <v>0.6129141483661158</v>
+        <v>0.1552609038797783</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.78145118903734</v>
+        <v>0.3723766608454682</v>
       </c>
       <c r="G14">
-        <v>0.0007775221545018834</v>
+        <v>0.239394608092752</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1637810143804757</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001411109873550309</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2323619545388027</v>
       </c>
       <c r="K14">
-        <v>0.9333380161417324</v>
+        <v>0.2464210202340809</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.073173086939818</v>
+        <v>1.299789413781241</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05235589383799066</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1483250109104155</v>
+      </c>
+      <c r="P14">
+        <v>0.8165141505328322</v>
+      </c>
+      <c r="Q14">
+        <v>0.9429415207603142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9799790230389931</v>
+        <v>1.188052725239004</v>
       </c>
       <c r="C15">
-        <v>0.09246898435792161</v>
+        <v>0.3207081908853979</v>
       </c>
       <c r="D15">
-        <v>0.6065812675333575</v>
+        <v>0.1549450022515089</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.6609348434331</v>
+        <v>0.3657727938738802</v>
       </c>
       <c r="G15">
-        <v>0.0007787350648140433</v>
+        <v>0.2345270654803073</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1763659664693904</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001519549147877441</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2302782912261065</v>
       </c>
       <c r="K15">
-        <v>0.9208501004426353</v>
+        <v>0.2434344694900066</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.995433606760301</v>
+        <v>1.289311051101322</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04914856092847675</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1397288690549985</v>
+      </c>
+      <c r="P15">
+        <v>0.8227645964071115</v>
+      </c>
+      <c r="Q15">
+        <v>0.9282311696067751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9071264057129156</v>
+        <v>1.11447810373673</v>
       </c>
       <c r="C16">
-        <v>0.08506432313431134</v>
+        <v>0.3096180401937545</v>
       </c>
       <c r="D16">
-        <v>0.5708101142199098</v>
+        <v>0.1459777057779803</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.979777540669829</v>
+        <v>0.3572979843763804</v>
       </c>
       <c r="G16">
-        <v>0.0007856492834423222</v>
+        <v>0.2323689854667492</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1640030508705479</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001627853505954846</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2319518747265761</v>
       </c>
       <c r="K16">
-        <v>0.8504402009821206</v>
+        <v>0.2476259876559634</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.564969095778849</v>
+        <v>1.21139209642655</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04989561442355583</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1325481632740342</v>
+      </c>
+      <c r="P16">
+        <v>0.8327880693400616</v>
+      </c>
+      <c r="Q16">
+        <v>0.9270003972832512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8633548677836416</v>
+        <v>1.088078864675253</v>
       </c>
       <c r="C17">
-        <v>0.08065137861395755</v>
+        <v>0.2922370862506085</v>
       </c>
       <c r="D17">
-        <v>0.5492823903692283</v>
+        <v>0.1379911683207808</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.569547345201499</v>
+        <v>0.3625903011369047</v>
       </c>
       <c r="G17">
-        <v>0.0007898665819720113</v>
+        <v>0.2402804109887526</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1264155094162618</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001737625931308884</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2378820424166577</v>
       </c>
       <c r="K17">
-        <v>0.8081942602693175</v>
+        <v>0.2579331031579866</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.312614419988407</v>
+        <v>1.157122940848978</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05945542283950545</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1439559602202429</v>
+      </c>
+      <c r="P17">
+        <v>0.8305867845574966</v>
+      </c>
+      <c r="Q17">
+        <v>0.9560919885538794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8384881207945796</v>
+        <v>1.100798744312414</v>
       </c>
       <c r="C18">
-        <v>0.07815640342352026</v>
+        <v>0.2689904227123776</v>
       </c>
       <c r="D18">
-        <v>0.5370362128190038</v>
+        <v>0.1299182774304057</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.336105187247568</v>
+        <v>0.3810346911484572</v>
       </c>
       <c r="G18">
-        <v>0.0007922862366766525</v>
+        <v>0.2586747095756579</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07355741270782801</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001535154865079491</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2485563278416549</v>
       </c>
       <c r="K18">
-        <v>0.7842138984703979</v>
+        <v>0.2760315329896201</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.171186392960891</v>
+        <v>1.11706287471003</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09138099953309364</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1750778993323472</v>
+      </c>
+      <c r="P18">
+        <v>0.8194747335476507</v>
+      </c>
+      <c r="Q18">
+        <v>1.017386942337581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.830119234670974</v>
+        <v>1.140517380430936</v>
       </c>
       <c r="C19">
-        <v>0.07731868017385324</v>
+        <v>0.2472961346589528</v>
       </c>
       <c r="D19">
-        <v>0.5329117319242584</v>
+        <v>0.1228884498729315</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.2574712781676</v>
+        <v>0.4075507269017962</v>
       </c>
       <c r="G19">
-        <v>0.0007931047070314937</v>
+        <v>0.2835202626555073</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02799830868576692</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00163024729864425</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2618284705851082</v>
       </c>
       <c r="K19">
-        <v>0.776146556886161</v>
+        <v>0.2992699287810474</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.123890919703413</v>
+        <v>1.091926849316025</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1596463460467277</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2230052739127295</v>
+      </c>
+      <c r="P19">
+        <v>0.8062477671068997</v>
+      </c>
+      <c r="Q19">
+        <v>1.097840450538726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8679817673570938</v>
+        <v>1.261990801690189</v>
       </c>
       <c r="C20">
-        <v>0.08111657476623435</v>
+        <v>0.2268687553241406</v>
       </c>
       <c r="D20">
-        <v>0.551559615125484</v>
+        <v>0.1182360060314949</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.612950878332583</v>
+        <v>0.4585447581797126</v>
       </c>
       <c r="G20">
-        <v>0.0007894183276711942</v>
+        <v>0.3279604485081222</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.000897371984633466</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00161238984719958</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2831136132674175</v>
       </c>
       <c r="K20">
-        <v>0.8126578124684727</v>
+        <v>0.337936321394281</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.339080956937352</v>
+        <v>1.10849656432876</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3241275666044316</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3171733960249554</v>
+      </c>
+      <c r="P20">
+        <v>0.7836972730783742</v>
+      </c>
+      <c r="Q20">
+        <v>1.236730074031584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9990982894583169</v>
+        <v>1.426249042819109</v>
       </c>
       <c r="C21">
-        <v>0.09442458009529986</v>
+        <v>0.2343755375149357</v>
       </c>
       <c r="D21">
-        <v>0.6159608575221398</v>
+        <v>0.1306463207190802</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.83942206417902</v>
+        <v>0.4908072936186727</v>
       </c>
       <c r="G21">
-        <v>0.0007769397589139521</v>
+        <v>0.3473348027193452</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0002187124014088049</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001760253997150407</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2879194250452954</v>
       </c>
       <c r="K21">
-        <v>0.9393479150302824</v>
+        <v>0.3442834154094605</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.110743839386117</v>
+        <v>1.239188365455703</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3724251139481112</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3629489499180281</v>
+      </c>
+      <c r="P21">
+        <v>0.7539714527108252</v>
+      </c>
+      <c r="Q21">
+        <v>1.288153495019031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.088205017114291</v>
+        <v>1.532321110326421</v>
       </c>
       <c r="C22">
-        <v>0.1036057120296121</v>
+        <v>0.2397282944250847</v>
       </c>
       <c r="D22">
-        <v>0.6596608065880787</v>
+        <v>0.138966683562586</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.67023093231694</v>
+        <v>0.511358137919359</v>
       </c>
       <c r="G22">
-        <v>0.0007686614153788955</v>
+        <v>0.359416543260437</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.900941645180623E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00172170310235753</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2908096628678578</v>
       </c>
       <c r="K22">
-        <v>1.025662743222426</v>
+        <v>0.3477468516305535</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.662483007503639</v>
+        <v>1.325486376133625</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3948115176339968</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3889132097385328</v>
+      </c>
+      <c r="P22">
+        <v>0.7353667328156597</v>
+      </c>
+      <c r="Q22">
+        <v>1.319999790071876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.040299109032702</v>
+        <v>1.478167772959011</v>
       </c>
       <c r="C23">
-        <v>0.09865607873123139</v>
+        <v>0.2364337956886899</v>
       </c>
       <c r="D23">
-        <v>0.636167527600179</v>
+        <v>0.1343279735887819</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.22374989556914</v>
+        <v>0.5013857375029644</v>
       </c>
       <c r="G23">
-        <v>0.0007730949715034175</v>
+        <v>0.3539204291631393</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001229621830303174</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001426747142316387</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2897495987390215</v>
       </c>
       <c r="K23">
-        <v>0.9792366907311134</v>
+        <v>0.3468702320517103</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.362811587140925</v>
+        <v>1.279237071807557</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3827668886018074</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3754072789988356</v>
+      </c>
+      <c r="P23">
+        <v>0.7450672192070442</v>
+      </c>
+      <c r="Q23">
+        <v>1.306032465911301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8658890243964663</v>
+        <v>1.26874443048402</v>
       </c>
       <c r="C24">
-        <v>0.08090612953111531</v>
+        <v>0.2246892967570915</v>
       </c>
       <c r="D24">
-        <v>0.5505296796753782</v>
+        <v>0.1171047257402762</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.593320720382366</v>
+        <v>0.4629201933418159</v>
       </c>
       <c r="G24">
-        <v>0.0007896209981341466</v>
+        <v>0.3322893255823729</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0007306198443276513</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00112147299565013</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2854066752747926</v>
       </c>
       <c r="K24">
-        <v>0.8106388901390744</v>
+        <v>0.3424084377687748</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.327104191449678</v>
+        <v>1.104379120281322</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3373663744794584</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3236694471777071</v>
+      </c>
+      <c r="P24">
+        <v>0.7832911506928646</v>
+      </c>
+      <c r="Q24">
+        <v>1.250706238712354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6893399477157516</v>
+        <v>1.042143370724915</v>
       </c>
       <c r="C25">
-        <v>0.06337336539391458</v>
+        <v>0.2119897190369215</v>
       </c>
       <c r="D25">
-        <v>0.4632275089107907</v>
+        <v>0.09854777589261232</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.928459047843148</v>
+        <v>0.4234146020623157</v>
       </c>
       <c r="G25">
-        <v>0.000807236042180615</v>
+        <v>0.3105355610017853</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.00202961152042469</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001481789802198819</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2817281589771738</v>
       </c>
       <c r="K25">
-        <v>0.640686839023985</v>
+        <v>0.3385785399189629</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.349042605690386</v>
+        <v>0.91560536600565</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2884754997858749</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2678160135090408</v>
+      </c>
+      <c r="P25">
+        <v>0.8269051766116142</v>
+      </c>
+      <c r="Q25">
+        <v>1.196457658568164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8803902563886652</v>
+        <v>0.848883359354744</v>
       </c>
       <c r="C2">
-        <v>0.2015809869925747</v>
+        <v>0.1877919558165217</v>
       </c>
       <c r="D2">
-        <v>0.08441204837501459</v>
+        <v>0.08657639900386727</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3983846924845054</v>
+        <v>0.3791401567047501</v>
       </c>
       <c r="G2">
-        <v>0.2981428401135204</v>
+        <v>0.262072457382672</v>
       </c>
       <c r="H2">
-        <v>0.00347036077950541</v>
+        <v>0.002941101916111744</v>
       </c>
       <c r="I2">
-        <v>0.001563360451604101</v>
+        <v>0.001213710544958779</v>
       </c>
       <c r="J2">
-        <v>0.2810693422968598</v>
+        <v>0.3021547228723591</v>
       </c>
       <c r="K2">
-        <v>0.3389937596167627</v>
+        <v>0.3129061554837662</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1570440516558911</v>
       </c>
       <c r="M2">
-        <v>0.7758511535779036</v>
+        <v>0.08435545127313659</v>
       </c>
       <c r="N2">
-        <v>0.2522788312718234</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2274493545939649</v>
+        <v>0.7796710653296657</v>
       </c>
       <c r="P2">
-        <v>0.8607774250549571</v>
+        <v>0.2581593697603921</v>
       </c>
       <c r="Q2">
-        <v>1.168470769159825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2224911882598484</v>
+      </c>
+      <c r="R2">
+        <v>0.8445812754677284</v>
+      </c>
+      <c r="S2">
+        <v>1.104321187569099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7668838202001496</v>
+        <v>0.7425790746817142</v>
       </c>
       <c r="C3">
-        <v>0.1950250789073635</v>
+        <v>0.1791543358216572</v>
       </c>
       <c r="D3">
-        <v>0.07508750975390655</v>
+        <v>0.07657737486550076</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3808130883187602</v>
+        <v>0.3638802500165497</v>
       </c>
       <c r="G3">
-        <v>0.2890292258895499</v>
+        <v>0.2556400811674848</v>
       </c>
       <c r="H3">
-        <v>0.004741146351094294</v>
+        <v>0.004042011217856911</v>
       </c>
       <c r="I3">
-        <v>0.002289921962052688</v>
+        <v>0.001720448071179437</v>
       </c>
       <c r="J3">
-        <v>0.2803755126301581</v>
+        <v>0.3004721169687059</v>
       </c>
       <c r="K3">
-        <v>0.3383178929321282</v>
+        <v>0.3138824478154874</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1612721643406836</v>
       </c>
       <c r="M3">
-        <v>0.681139336923394</v>
+        <v>0.08238575880463017</v>
       </c>
       <c r="N3">
-        <v>0.2278543388037377</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1995387776980984</v>
+        <v>0.6845952747498387</v>
       </c>
       <c r="P3">
-        <v>0.8850291623068607</v>
+        <v>0.2337705406461978</v>
       </c>
       <c r="Q3">
-        <v>1.147456096733052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1955869445613665</v>
+      </c>
+      <c r="R3">
+        <v>0.8661711863556842</v>
+      </c>
+      <c r="S3">
+        <v>1.08946262017983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6968272821384858</v>
+        <v>0.6768033218301071</v>
       </c>
       <c r="C4">
-        <v>0.1909689175164679</v>
+        <v>0.173875934328791</v>
       </c>
       <c r="D4">
-        <v>0.0693589475128249</v>
+        <v>0.07044599329677226</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3703732866667906</v>
+        <v>0.3547862746131614</v>
       </c>
       <c r="G4">
-        <v>0.2837025487130376</v>
+        <v>0.2519613144156452</v>
       </c>
       <c r="H4">
-        <v>0.005655588865478067</v>
+        <v>0.004836181167678588</v>
       </c>
       <c r="I4">
-        <v>0.002881254345342921</v>
+        <v>0.002158325998353749</v>
       </c>
       <c r="J4">
-        <v>0.2801489525433851</v>
+        <v>0.2995113771126512</v>
       </c>
       <c r="K4">
-        <v>0.3380722283433322</v>
+        <v>0.3145911868521694</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.163962271444003</v>
       </c>
       <c r="M4">
-        <v>0.6228421270289175</v>
+        <v>0.08166784953803763</v>
       </c>
       <c r="N4">
-        <v>0.2128437970673005</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1823485313498949</v>
+        <v>0.6260699762939339</v>
       </c>
       <c r="P4">
-        <v>0.9004667622794891</v>
+        <v>0.218793208613306</v>
       </c>
       <c r="Q4">
-        <v>1.135534463527961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1789935666344284</v>
+      </c>
+      <c r="R4">
+        <v>0.8799992706968673</v>
+      </c>
+      <c r="S4">
+        <v>1.081099605810877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.667591456685642</v>
+        <v>0.6492813969726114</v>
       </c>
       <c r="C5">
-        <v>0.1894012966305425</v>
+        <v>0.1718500735953867</v>
       </c>
       <c r="D5">
-        <v>0.06707057690475438</v>
+        <v>0.06799755064917434</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3659379908978906</v>
+        <v>0.3508846851010077</v>
       </c>
       <c r="G5">
-        <v>0.2813433403082328</v>
+        <v>0.2502830077550797</v>
       </c>
       <c r="H5">
-        <v>0.006063560575921362</v>
+        <v>0.005191039558396615</v>
       </c>
       <c r="I5">
-        <v>0.003231842778773864</v>
+        <v>0.002454297031814434</v>
       </c>
       <c r="J5">
-        <v>0.2799737746685196</v>
+        <v>0.2990018540288375</v>
       </c>
       <c r="K5">
-        <v>0.3377541764869463</v>
+        <v>0.3146584285399783</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1649522329762618</v>
       </c>
       <c r="M5">
-        <v>0.5990934795636349</v>
+        <v>0.08144093700983568</v>
       </c>
       <c r="N5">
-        <v>0.2067428941147469</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1752436278914118</v>
+        <v>0.602228711602578</v>
       </c>
       <c r="P5">
-        <v>0.9068890060079564</v>
+        <v>0.2127090212604941</v>
       </c>
       <c r="Q5">
-        <v>1.130101171360394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1721267699995046</v>
+      </c>
+      <c r="R5">
+        <v>0.8857918590211735</v>
+      </c>
+      <c r="S5">
+        <v>1.077078851930224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6620023445608751</v>
+        <v>0.6439802410218363</v>
       </c>
       <c r="C6">
-        <v>0.1892571494739244</v>
+        <v>0.1716628637491411</v>
       </c>
       <c r="D6">
-        <v>0.06674864059323937</v>
+        <v>0.06765074430381901</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3648819232167639</v>
+        <v>0.3499203432101226</v>
       </c>
       <c r="G6">
-        <v>0.2806455079526842</v>
+        <v>0.2497097820438867</v>
       </c>
       <c r="H6">
-        <v>0.006136583069345281</v>
+        <v>0.005254730720267664</v>
       </c>
       <c r="I6">
-        <v>0.003390386987014438</v>
+        <v>0.002620161253661379</v>
       </c>
       <c r="J6">
-        <v>0.279786358172295</v>
+        <v>0.2987522518239984</v>
       </c>
       <c r="K6">
-        <v>0.3373867767794145</v>
+        <v>0.3143680482641535</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1649599791670688</v>
       </c>
       <c r="M6">
-        <v>0.5952049184462282</v>
+        <v>0.08133960786066829</v>
       </c>
       <c r="N6">
-        <v>0.2057548057412077</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1739577941993034</v>
+        <v>0.5983259325562784</v>
       </c>
       <c r="P6">
-        <v>0.9079606865745884</v>
+        <v>0.2117241596014239</v>
       </c>
       <c r="Q6">
-        <v>1.128218160866638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1708801964012565</v>
+      </c>
+      <c r="R6">
+        <v>0.8867840273874457</v>
+      </c>
+      <c r="S6">
+        <v>1.075448105791224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6944357293032226</v>
+        <v>0.6741276666937495</v>
       </c>
       <c r="C7">
-        <v>0.1912688418898902</v>
+        <v>0.1741382690433966</v>
       </c>
       <c r="D7">
-        <v>0.06948743783487998</v>
+        <v>0.07068526231920913</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3694267205925854</v>
+        <v>0.3532998739032678</v>
       </c>
       <c r="G7">
-        <v>0.2828243000931536</v>
+        <v>0.2533265056754672</v>
       </c>
       <c r="H7">
-        <v>0.00566951402785959</v>
+        <v>0.004851639727594559</v>
       </c>
       <c r="I7">
-        <v>0.003138742192390964</v>
+        <v>0.002460795714758213</v>
       </c>
       <c r="J7">
-        <v>0.2797068355939771</v>
+        <v>0.2958753245978016</v>
       </c>
       <c r="K7">
-        <v>0.3372029839616957</v>
+        <v>0.3134811771012735</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1634117736182148</v>
       </c>
       <c r="M7">
-        <v>0.6226789803574491</v>
+        <v>0.08138812769828085</v>
       </c>
       <c r="N7">
-        <v>0.2128313158726272</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1819646241624504</v>
+        <v>0.625318271266238</v>
       </c>
       <c r="P7">
-        <v>0.9005563033057307</v>
+        <v>0.2187846480646343</v>
       </c>
       <c r="Q7">
-        <v>1.132745225850925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.178565359393275</v>
+      </c>
+      <c r="R7">
+        <v>0.8801992361381838</v>
+      </c>
+      <c r="S7">
+        <v>1.076706971368068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8386591378304047</v>
+        <v>0.8086094528455021</v>
       </c>
       <c r="C8">
-        <v>0.1997646147162513</v>
+        <v>0.1849681772560032</v>
       </c>
       <c r="D8">
-        <v>0.08141054805265924</v>
+        <v>0.08371265893856616</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3910796693232328</v>
+        <v>0.3708140452507251</v>
       </c>
       <c r="G8">
-        <v>0.2938258059178196</v>
+        <v>0.2661074906250604</v>
       </c>
       <c r="H8">
-        <v>0.003888779036319734</v>
+        <v>0.003311098435819337</v>
       </c>
       <c r="I8">
-        <v>0.00208792093432475</v>
+        <v>0.001726427737597014</v>
       </c>
       <c r="J8">
-        <v>0.2802104929016025</v>
+        <v>0.2906728838548318</v>
       </c>
       <c r="K8">
-        <v>0.3375878533534404</v>
+        <v>0.3112108532585403</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1575556712229158</v>
       </c>
       <c r="M8">
-        <v>0.7434322019461064</v>
+        <v>0.08298171688719158</v>
       </c>
       <c r="N8">
-        <v>0.2439550921443043</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2174521420604236</v>
+        <v>0.7451519148013261</v>
       </c>
       <c r="P8">
-        <v>0.8690782304375961</v>
+        <v>0.2498602391326017</v>
       </c>
       <c r="Q8">
-        <v>1.157437814218582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2126864807128221</v>
+      </c>
+      <c r="R8">
+        <v>0.8522999766038737</v>
+      </c>
+      <c r="S8">
+        <v>1.089999973652624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.122248250136863</v>
+        <v>1.073074383968731</v>
       </c>
       <c r="C9">
-        <v>0.2156469007934376</v>
+        <v>0.2061398648184323</v>
       </c>
       <c r="D9">
-        <v>0.1045038704320334</v>
+        <v>0.1086577893535789</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4380598650245773</v>
+        <v>0.4110750921894919</v>
       </c>
       <c r="G9">
-        <v>0.3191743908725115</v>
+        <v>0.2868021510005079</v>
       </c>
       <c r="H9">
-        <v>0.001504023134676458</v>
+        <v>0.001253707802258419</v>
       </c>
       <c r="I9">
-        <v>0.0008533608483967114</v>
+        <v>0.0008759361949008948</v>
       </c>
       <c r="J9">
-        <v>0.283613242122982</v>
+        <v>0.293025471840636</v>
       </c>
       <c r="K9">
-        <v>0.3412678670762688</v>
+        <v>0.3101474332156862</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1480040820503028</v>
       </c>
       <c r="M9">
-        <v>0.9789440704841468</v>
+        <v>0.09071063685908598</v>
       </c>
       <c r="N9">
-        <v>0.3048025808676584</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2871676624846344</v>
+        <v>0.980935627548746</v>
       </c>
       <c r="P9">
-        <v>0.8117298635870629</v>
+        <v>0.310684132805136</v>
       </c>
       <c r="Q9">
-        <v>1.218867344712308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2797201201284025</v>
+      </c>
+      <c r="R9">
+        <v>0.8018369746646847</v>
+      </c>
+      <c r="S9">
+        <v>1.133231083149113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.320661618272851</v>
+        <v>1.255732507963387</v>
       </c>
       <c r="C10">
-        <v>0.2292067863056317</v>
+        <v>0.2235499658166873</v>
       </c>
       <c r="D10">
-        <v>0.1223880499527326</v>
+        <v>0.1285925413272651</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4699949771830276</v>
+        <v>0.4349431205618046</v>
       </c>
       <c r="G10">
-        <v>0.334997151781657</v>
+        <v>0.3130665848500556</v>
       </c>
       <c r="H10">
-        <v>0.0007565044711443925</v>
+        <v>0.0006521777603980539</v>
       </c>
       <c r="I10">
-        <v>0.0008961176182520347</v>
+        <v>0.001111624862780047</v>
       </c>
       <c r="J10">
-        <v>0.2849633561059974</v>
+        <v>0.2765853735355535</v>
       </c>
       <c r="K10">
-        <v>0.3406045743510759</v>
+        <v>0.3048133066474286</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1396310020302263</v>
       </c>
       <c r="M10">
-        <v>1.153804505987722</v>
+        <v>0.09669823505632635</v>
       </c>
       <c r="N10">
-        <v>0.3317245878851338</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3295470733368617</v>
+        <v>1.152296441432725</v>
       </c>
       <c r="P10">
-        <v>0.7734212175206316</v>
+        <v>0.3375140579297096</v>
       </c>
       <c r="Q10">
-        <v>1.255620401797785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3199586761646174</v>
+      </c>
+      <c r="R10">
+        <v>0.7700145731723183</v>
+      </c>
+      <c r="S10">
+        <v>1.147584341447072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.343888624252145</v>
+        <v>1.276923842389664</v>
       </c>
       <c r="C11">
-        <v>0.2550461303734366</v>
+        <v>0.2523723446954165</v>
       </c>
       <c r="D11">
-        <v>0.1380188546296353</v>
+        <v>0.1460697310426866</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4475976864447233</v>
+        <v>0.4079253100597171</v>
       </c>
       <c r="G11">
-        <v>0.3075568857500031</v>
+        <v>0.316540956178045</v>
       </c>
       <c r="H11">
-        <v>0.01945277032794479</v>
+        <v>0.01935745380728093</v>
       </c>
       <c r="I11">
-        <v>0.001460550526487303</v>
+        <v>0.0018028502325107</v>
       </c>
       <c r="J11">
-        <v>0.2679351449573915</v>
+        <v>0.2332295595783336</v>
       </c>
       <c r="K11">
-        <v>0.3071163129360919</v>
+        <v>0.2726834156315441</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1259618756505088</v>
       </c>
       <c r="M11">
-        <v>1.252768701827989</v>
+        <v>0.08729418086642582</v>
       </c>
       <c r="N11">
-        <v>0.2095893083100009</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2777311859307972</v>
+        <v>1.242750056403594</v>
       </c>
       <c r="P11">
-        <v>0.7689051435812715</v>
+        <v>0.2140884767282003</v>
       </c>
       <c r="Q11">
-        <v>1.161944279624834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2687090339997766</v>
+      </c>
+      <c r="R11">
+        <v>0.7754282156031991</v>
+      </c>
+      <c r="S11">
+        <v>1.043495513712216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.324217350667936</v>
+        <v>1.2601503364113</v>
       </c>
       <c r="C12">
-        <v>0.2782570234219719</v>
+        <v>0.2766263423216913</v>
       </c>
       <c r="D12">
-        <v>0.1475583234065567</v>
+        <v>0.1563207313763684</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4232698173309331</v>
+        <v>0.3835519214902803</v>
       </c>
       <c r="G12">
-        <v>0.2828805170054522</v>
+        <v>0.3062150583396814</v>
       </c>
       <c r="H12">
-        <v>0.05828874456568656</v>
+        <v>0.05818784417174783</v>
       </c>
       <c r="I12">
-        <v>0.001466150555864409</v>
+        <v>0.001808440325010707</v>
       </c>
       <c r="J12">
-        <v>0.2540718034929697</v>
+        <v>0.2134438190332233</v>
       </c>
       <c r="K12">
-        <v>0.2818555875714246</v>
+        <v>0.2504983035417254</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1178409342265745</v>
       </c>
       <c r="M12">
-        <v>1.299939988988172</v>
+        <v>0.07917172017424967</v>
       </c>
       <c r="N12">
-        <v>0.12849282991872</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2296099600243444</v>
+        <v>1.285512536619564</v>
       </c>
       <c r="P12">
-        <v>0.7781285692861175</v>
+        <v>0.1319423438168243</v>
       </c>
       <c r="Q12">
-        <v>1.080656212755486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2216708734314743</v>
+      </c>
+      <c r="R12">
+        <v>0.7911340244553529</v>
+      </c>
+      <c r="S12">
+        <v>0.9646239066644426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.267374101835344</v>
+        <v>1.211016299380788</v>
       </c>
       <c r="C13">
-        <v>0.3009291669375642</v>
+        <v>0.2998469949431666</v>
       </c>
       <c r="D13">
-        <v>0.1531182295277489</v>
+        <v>0.1613436968703894</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3945463836241103</v>
+        <v>0.3594029719265635</v>
       </c>
       <c r="G13">
-        <v>0.2574920042963527</v>
+        <v>0.2777854393080545</v>
       </c>
       <c r="H13">
-        <v>0.1142581480834366</v>
+        <v>0.1141325189014424</v>
       </c>
       <c r="I13">
-        <v>0.001398744183867429</v>
+        <v>0.001722712563049456</v>
       </c>
       <c r="J13">
-        <v>0.241085438158116</v>
+        <v>0.2088074493042811</v>
       </c>
       <c r="K13">
-        <v>0.2600339500626916</v>
+        <v>0.2334526980764675</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1125029652790364</v>
       </c>
       <c r="M13">
-        <v>1.309789265388559</v>
+        <v>0.07149870621756982</v>
       </c>
       <c r="N13">
-        <v>0.07428949562400078</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1813597583687034</v>
+        <v>1.295724313861996</v>
       </c>
       <c r="P13">
-        <v>0.7976873863468228</v>
+        <v>0.07686203072400133</v>
       </c>
       <c r="Q13">
-        <v>0.9996212852471018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.174959319639111</v>
+      </c>
+      <c r="R13">
+        <v>0.8132408305751611</v>
+      </c>
+      <c r="S13">
+        <v>0.8985960724196786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.210436746555786</v>
+        <v>1.161507473510767</v>
       </c>
       <c r="C14">
-        <v>0.3171917107028008</v>
+        <v>0.3163470309661989</v>
       </c>
       <c r="D14">
-        <v>0.1552609038797783</v>
+        <v>0.1625273597659742</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3723766608454682</v>
+        <v>0.3422602750279822</v>
       </c>
       <c r="G14">
-        <v>0.239394608092752</v>
+        <v>0.2509415354437579</v>
       </c>
       <c r="H14">
-        <v>0.1637810143804757</v>
+        <v>0.1636269918664368</v>
       </c>
       <c r="I14">
-        <v>0.001411109873550309</v>
+        <v>0.00172627112115098</v>
       </c>
       <c r="J14">
-        <v>0.2323619545388027</v>
+        <v>0.2109473038546454</v>
       </c>
       <c r="K14">
-        <v>0.2464210202340809</v>
+        <v>0.2236464133147908</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1097776427995054</v>
       </c>
       <c r="M14">
-        <v>1.299789413781241</v>
+        <v>0.06643614667872377</v>
       </c>
       <c r="N14">
-        <v>0.05235589383799066</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1483250109104155</v>
+        <v>1.288115256248659</v>
       </c>
       <c r="P14">
-        <v>0.8165141505328322</v>
+        <v>0.0544431135618666</v>
       </c>
       <c r="Q14">
-        <v>0.9429415207603142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1431248541140313</v>
+      </c>
+      <c r="R14">
+        <v>0.8315445162658719</v>
+      </c>
+      <c r="S14">
+        <v>0.8570706157312742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.188052725239004</v>
+        <v>1.141844874896549</v>
       </c>
       <c r="C15">
-        <v>0.3207081908853979</v>
+        <v>0.319977564503148</v>
       </c>
       <c r="D15">
-        <v>0.1549450022515089</v>
+        <v>0.161732411698182</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3657727938738802</v>
+        <v>0.3376776152137921</v>
       </c>
       <c r="G15">
-        <v>0.2345270654803073</v>
+        <v>0.2413013600142477</v>
       </c>
       <c r="H15">
-        <v>0.1763659664693904</v>
+        <v>0.1761979264980482</v>
       </c>
       <c r="I15">
-        <v>0.001519549147877441</v>
+        <v>0.001849005146567606</v>
       </c>
       <c r="J15">
-        <v>0.2302782912261065</v>
+        <v>0.2138219149705662</v>
       </c>
       <c r="K15">
-        <v>0.2434344694900066</v>
+        <v>0.2218361378264717</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1094255782407334</v>
       </c>
       <c r="M15">
-        <v>1.289311051101322</v>
+        <v>0.06519796557212665</v>
       </c>
       <c r="N15">
-        <v>0.04914856092847675</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1397288690549985</v>
+        <v>1.279136595657661</v>
       </c>
       <c r="P15">
-        <v>0.8227645964071115</v>
+        <v>0.05116094106742075</v>
       </c>
       <c r="Q15">
-        <v>0.9282311696067751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1348932936579565</v>
+      </c>
+      <c r="R15">
+        <v>0.8367653715356838</v>
+      </c>
+      <c r="S15">
+        <v>0.8481130895282121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.11447810373673</v>
+        <v>1.076201885278522</v>
       </c>
       <c r="C16">
-        <v>0.3096180401937545</v>
+        <v>0.3090451968734129</v>
       </c>
       <c r="D16">
-        <v>0.1459777057779803</v>
+        <v>0.1507336758443927</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3572979843763804</v>
+        <v>0.3359431591973703</v>
       </c>
       <c r="G16">
-        <v>0.2323689854667492</v>
+        <v>0.2177336878338068</v>
       </c>
       <c r="H16">
-        <v>0.1640030508705479</v>
+        <v>0.1637593517916969</v>
       </c>
       <c r="I16">
-        <v>0.001627853505954846</v>
+        <v>0.001918711997064726</v>
       </c>
       <c r="J16">
-        <v>0.2319518747265761</v>
+        <v>0.237012825302692</v>
       </c>
       <c r="K16">
-        <v>0.2476259876559634</v>
+        <v>0.2282385484063756</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1128690957408995</v>
       </c>
       <c r="M16">
-        <v>1.21139209642655</v>
+        <v>0.06545582323608734</v>
       </c>
       <c r="N16">
-        <v>0.04989561442355583</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1325481632740342</v>
+        <v>1.208681085502661</v>
       </c>
       <c r="P16">
-        <v>0.8327880693400616</v>
+        <v>0.05222085609118832</v>
       </c>
       <c r="Q16">
-        <v>0.9270003972832512</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1284465799803947</v>
+      </c>
+      <c r="R16">
+        <v>0.8394789829855895</v>
+      </c>
+      <c r="S16">
+        <v>0.8644807456714858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.088078864675253</v>
+        <v>1.051486034650083</v>
       </c>
       <c r="C17">
-        <v>0.2922370862506085</v>
+        <v>0.2911986973836775</v>
       </c>
       <c r="D17">
-        <v>0.1379911683207808</v>
+        <v>0.1419656409160979</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3625903011369047</v>
+        <v>0.3431499741975657</v>
       </c>
       <c r="G17">
-        <v>0.2402804109887526</v>
+        <v>0.2162608407609312</v>
       </c>
       <c r="H17">
-        <v>0.1264155094162618</v>
+        <v>0.1261282349920236</v>
       </c>
       <c r="I17">
-        <v>0.001737625931308884</v>
+        <v>0.002003373733179714</v>
       </c>
       <c r="J17">
-        <v>0.2378820424166577</v>
+        <v>0.2527594239025106</v>
       </c>
       <c r="K17">
-        <v>0.2579331031579866</v>
+        <v>0.2382557554625606</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.117247892503018</v>
       </c>
       <c r="M17">
-        <v>1.157122940848978</v>
+        <v>0.06807421555627613</v>
       </c>
       <c r="N17">
-        <v>0.05945542283950545</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1439559602202429</v>
+        <v>1.157717735186282</v>
       </c>
       <c r="P17">
-        <v>0.8305867845574966</v>
+        <v>0.06222365659048634</v>
       </c>
       <c r="Q17">
-        <v>0.9560919885538794</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1398068052475985</v>
+      </c>
+      <c r="R17">
+        <v>0.8332373601410978</v>
+      </c>
+      <c r="S17">
+        <v>0.8978191206803388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.100798744312414</v>
+        <v>1.061492749032709</v>
       </c>
       <c r="C18">
-        <v>0.2689904227123776</v>
+        <v>0.2669974796828711</v>
       </c>
       <c r="D18">
-        <v>0.1299182774304057</v>
+        <v>0.1337604657623217</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3810346911484572</v>
+        <v>0.3607081620205008</v>
       </c>
       <c r="G18">
-        <v>0.2586747095756579</v>
+        <v>0.2290226732958232</v>
       </c>
       <c r="H18">
-        <v>0.07355741270782801</v>
+        <v>0.0732634078614538</v>
       </c>
       <c r="I18">
-        <v>0.001535154865079491</v>
+        <v>0.001744430203060254</v>
       </c>
       <c r="J18">
-        <v>0.2485563278416549</v>
+        <v>0.2670269365968565</v>
       </c>
       <c r="K18">
-        <v>0.2760315329896201</v>
+        <v>0.2541635341565502</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1236095406194213</v>
       </c>
       <c r="M18">
-        <v>1.11706287471003</v>
+        <v>0.07345311346787398</v>
       </c>
       <c r="N18">
-        <v>0.09138099953309364</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1750778993323472</v>
+        <v>1.119262426584527</v>
       </c>
       <c r="P18">
-        <v>0.8194747335476507</v>
+        <v>0.09480533243759481</v>
       </c>
       <c r="Q18">
-        <v>1.017386942337581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.170245753356614</v>
+      </c>
+      <c r="R18">
+        <v>0.8192676631716367</v>
+      </c>
+      <c r="S18">
+        <v>0.9553364247245497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.140517380430936</v>
+        <v>1.095444538718908</v>
       </c>
       <c r="C19">
-        <v>0.2472961346589528</v>
+        <v>0.2439560554741149</v>
       </c>
       <c r="D19">
-        <v>0.1228884498729315</v>
+        <v>0.126980205450991</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4075507269017962</v>
+        <v>0.3845467785709999</v>
       </c>
       <c r="G19">
-        <v>0.2835202626555073</v>
+        <v>0.2497858011491871</v>
       </c>
       <c r="H19">
-        <v>0.02799830868576692</v>
+        <v>0.02773780075774113</v>
       </c>
       <c r="I19">
-        <v>0.00163024729864425</v>
+        <v>0.001877390205747176</v>
       </c>
       <c r="J19">
-        <v>0.2618284705851082</v>
+        <v>0.2802096422674936</v>
       </c>
       <c r="K19">
-        <v>0.2992699287810474</v>
+        <v>0.2738330962718756</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1311294043593154</v>
       </c>
       <c r="M19">
-        <v>1.091926849316025</v>
+        <v>0.08072070072414839</v>
       </c>
       <c r="N19">
-        <v>0.1596463460467277</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2230052739127295</v>
+        <v>1.094862095735408</v>
       </c>
       <c r="P19">
-        <v>0.8062477671068997</v>
+        <v>0.1639440148757316</v>
       </c>
       <c r="Q19">
-        <v>1.097840450538726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2169628545284219</v>
+      </c>
+      <c r="R19">
+        <v>0.8036085437871847</v>
+      </c>
+      <c r="S19">
+        <v>1.02676360161702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.261990801690189</v>
+        <v>1.202608845601532</v>
       </c>
       <c r="C20">
-        <v>0.2268687553241406</v>
+        <v>0.2210742130843357</v>
       </c>
       <c r="D20">
-        <v>0.1182360060314949</v>
+        <v>0.1235022382654591</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4585447581797126</v>
+        <v>0.4277451630423883</v>
       </c>
       <c r="G20">
-        <v>0.3279604485081222</v>
+        <v>0.2951394266392739</v>
       </c>
       <c r="H20">
-        <v>0.000897371984633466</v>
+        <v>0.0007569828030571379</v>
       </c>
       <c r="I20">
-        <v>0.00161238984719958</v>
+        <v>0.001944291228579864</v>
       </c>
       <c r="J20">
-        <v>0.2831136132674175</v>
+        <v>0.2897424753037399</v>
       </c>
       <c r="K20">
-        <v>0.337936321394281</v>
+        <v>0.3046023787131666</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1411891335183473</v>
       </c>
       <c r="M20">
-        <v>1.10849656432876</v>
+        <v>0.09438742085554352</v>
       </c>
       <c r="N20">
-        <v>0.3241275666044316</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3171733960249554</v>
+        <v>1.110128247451854</v>
       </c>
       <c r="P20">
-        <v>0.7836972730783742</v>
+        <v>0.3299162862834066</v>
       </c>
       <c r="Q20">
-        <v>1.236730074031584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.30834460750809</v>
+      </c>
+      <c r="R20">
+        <v>0.7785062103866096</v>
+      </c>
+      <c r="S20">
+        <v>1.141033893318237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.426249042819109</v>
+        <v>1.346597318209035</v>
       </c>
       <c r="C21">
-        <v>0.2343755375149357</v>
+        <v>0.2285311614789194</v>
       </c>
       <c r="D21">
-        <v>0.1306463207190802</v>
+        <v>0.1397832144107412</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4908072936186727</v>
+        <v>0.4423132092295603</v>
       </c>
       <c r="G21">
-        <v>0.3473348027193452</v>
+        <v>0.3681289811805897</v>
       </c>
       <c r="H21">
-        <v>0.0002187124014088049</v>
+        <v>0.000176491112656274</v>
       </c>
       <c r="I21">
-        <v>0.001760253997150407</v>
+        <v>0.00216245291450079</v>
       </c>
       <c r="J21">
-        <v>0.2879194250452954</v>
+        <v>0.234028591534809</v>
       </c>
       <c r="K21">
-        <v>0.3442834154094605</v>
+        <v>0.3011089092326564</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1352802398197497</v>
       </c>
       <c r="M21">
-        <v>1.239188365455703</v>
+        <v>0.09967812718264923</v>
       </c>
       <c r="N21">
-        <v>0.3724251139481112</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3629489499180281</v>
+        <v>1.226496752384122</v>
       </c>
       <c r="P21">
-        <v>0.7539714527108252</v>
+        <v>0.3785326420788806</v>
       </c>
       <c r="Q21">
-        <v>1.288153495019031</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3511361735025105</v>
+      </c>
+      <c r="R21">
+        <v>0.7555218226979612</v>
+      </c>
+      <c r="S21">
+        <v>1.140957222013853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.532321110326421</v>
+        <v>1.439046864982572</v>
       </c>
       <c r="C22">
-        <v>0.2397282944250847</v>
+        <v>0.2338027974950805</v>
       </c>
       <c r="D22">
-        <v>0.138966683562586</v>
+        <v>0.1508592451568234</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.511358137919359</v>
+        <v>0.4504380432705659</v>
       </c>
       <c r="G22">
-        <v>0.359416543260437</v>
+        <v>0.4235957868722551</v>
       </c>
       <c r="H22">
-        <v>4.900941645180623E-05</v>
+        <v>3.856639263344341E-05</v>
       </c>
       <c r="I22">
-        <v>0.00172170310235753</v>
+        <v>0.002064688984987129</v>
       </c>
       <c r="J22">
-        <v>0.2908096628678578</v>
+        <v>0.2040466111832053</v>
       </c>
       <c r="K22">
-        <v>0.3477468516305535</v>
+        <v>0.2978628374727066</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1312491649219201</v>
       </c>
       <c r="M22">
-        <v>1.325486376133625</v>
+        <v>0.1030093195590212</v>
       </c>
       <c r="N22">
-        <v>0.3948115176339968</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3889132097385328</v>
+        <v>1.30225093484421</v>
       </c>
       <c r="P22">
-        <v>0.7353667328156597</v>
+        <v>0.4010930256302601</v>
       </c>
       <c r="Q22">
-        <v>1.319999790071876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.375140023374442</v>
+      </c>
+      <c r="R22">
+        <v>0.7419699457641258</v>
+      </c>
+      <c r="S22">
+        <v>1.13679139365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.478167772959011</v>
+        <v>1.393034127170154</v>
       </c>
       <c r="C23">
-        <v>0.2364337956886899</v>
+        <v>0.2307322935777449</v>
       </c>
       <c r="D23">
-        <v>0.1343279735887819</v>
+        <v>0.1444166181127144</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5013857375029644</v>
+        <v>0.4485420351061649</v>
       </c>
       <c r="G23">
-        <v>0.3539204291631393</v>
+        <v>0.3876109858917545</v>
       </c>
       <c r="H23">
-        <v>0.0001229621830303174</v>
+        <v>9.772137562791272E-05</v>
       </c>
       <c r="I23">
-        <v>0.001426747142316387</v>
+        <v>0.001743789521401418</v>
       </c>
       <c r="J23">
-        <v>0.2897495987390215</v>
+        <v>0.2242390912645718</v>
       </c>
       <c r="K23">
-        <v>0.3468702320517103</v>
+        <v>0.3011755691266274</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1339041163506796</v>
       </c>
       <c r="M23">
-        <v>1.279237071807557</v>
+        <v>0.1018835279741594</v>
       </c>
       <c r="N23">
-        <v>0.3827668886018074</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3754072789988356</v>
+        <v>1.263279019622416</v>
       </c>
       <c r="P23">
-        <v>0.7450672192070442</v>
+        <v>0.3889275214329473</v>
       </c>
       <c r="Q23">
-        <v>1.306032465911301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3628138102218941</v>
+      </c>
+      <c r="R23">
+        <v>0.7483657613090848</v>
+      </c>
+      <c r="S23">
+        <v>1.146195748025335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.26874443048402</v>
+        <v>1.20878924964066</v>
       </c>
       <c r="C24">
-        <v>0.2246892967570915</v>
+        <v>0.2183496792302932</v>
       </c>
       <c r="D24">
-        <v>0.1171047257402762</v>
+        <v>0.1223517555445284</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4629201933418159</v>
+        <v>0.4318612450213095</v>
       </c>
       <c r="G24">
-        <v>0.3322893255823729</v>
+        <v>0.2986616990070559</v>
       </c>
       <c r="H24">
-        <v>0.0007306198443276513</v>
+        <v>0.0005951418200325076</v>
       </c>
       <c r="I24">
-        <v>0.00112147299565013</v>
+        <v>0.001354782651239006</v>
       </c>
       <c r="J24">
-        <v>0.2854066752747926</v>
+        <v>0.2923461860176602</v>
       </c>
       <c r="K24">
-        <v>0.3424084377687748</v>
+        <v>0.3085410624331537</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1427058089540392</v>
       </c>
       <c r="M24">
-        <v>1.104379120281322</v>
+        <v>0.09582788981774115</v>
       </c>
       <c r="N24">
-        <v>0.3373663744794584</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3236694471777071</v>
+        <v>1.106161780548348</v>
       </c>
       <c r="P24">
-        <v>0.7832911506928646</v>
+        <v>0.3432699337317047</v>
       </c>
       <c r="Q24">
-        <v>1.250706238712354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3146960109269301</v>
+      </c>
+      <c r="R24">
+        <v>0.7774086466388859</v>
+      </c>
+      <c r="S24">
+        <v>1.153980506761897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.042143370724915</v>
+        <v>0.9987999728284649</v>
       </c>
       <c r="C25">
-        <v>0.2119897190369215</v>
+        <v>0.2014002563787969</v>
       </c>
       <c r="D25">
-        <v>0.09854777589261232</v>
+        <v>0.102041558733994</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4234146020623157</v>
+        <v>0.3991530814015647</v>
       </c>
       <c r="G25">
-        <v>0.3105355610017853</v>
+        <v>0.276270333659788</v>
       </c>
       <c r="H25">
-        <v>0.00202961152042469</v>
+        <v>0.001703145620140623</v>
       </c>
       <c r="I25">
-        <v>0.001481789802198819</v>
+        <v>0.001500604394487404</v>
       </c>
       <c r="J25">
-        <v>0.2817281589771738</v>
+        <v>0.2958847128940647</v>
       </c>
       <c r="K25">
-        <v>0.3385785399189629</v>
+        <v>0.3093010924595205</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1500876075352551</v>
       </c>
       <c r="M25">
-        <v>0.91560536600565</v>
+        <v>0.08783949252376644</v>
       </c>
       <c r="N25">
-        <v>0.2884754997858749</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2678160135090408</v>
+        <v>0.9184001280963514</v>
       </c>
       <c r="P25">
-        <v>0.8269051766116142</v>
+        <v>0.2943506723256064</v>
       </c>
       <c r="Q25">
-        <v>1.196457658568164</v>
+        <v>0.2611859698090981</v>
+      </c>
+      <c r="R25">
+        <v>0.8151835777004273</v>
+      </c>
+      <c r="S25">
+        <v>1.118513764379955</v>
       </c>
     </row>
   </sheetData>
